--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71ADD77-F885-4467-A592-E95131A2E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA038D92-FDF7-45A8-8556-0403782BFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -67,51 +67,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>dan</author>
-  </authors>
-  <commentList>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{3C535AF1-D460-444D-8088-2621310A2753}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="271">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -605,348 +562,7 @@
     <t>Percentage of server fleet with application whitelisting</t>
   </si>
   <si>
-    <t>PR3-E8.2</t>
-  </si>
-  <si>
-    <t>Patch applications 
-Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers</t>
-  </si>
-  <si>
-    <t>Further info</t>
-  </si>
-  <si>
-    <t>Patched within 30 days</t>
-  </si>
-  <si>
-    <t>Patched within 31 - 60 days</t>
-  </si>
-  <si>
-    <t>Patched within 61 - 90 days</t>
-  </si>
-  <si>
-    <t>Total percentage of fleet</t>
-  </si>
-  <si>
-    <t>Evidence of risk managements and patching timelines</t>
-  </si>
-  <si>
-    <t>Mitigating controls where patching is not completed 90&lt; days 
-Please refer to the guideline linked above</t>
-  </si>
-  <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>PR3- E8.2.1</t>
-  </si>
-  <si>
-    <t>Patching as applied to workstation applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For applications used in this group estimate the approximate percentage of workstation applications for which:
-a) patches have not been applied across workstation applications (e.g. content management, record keeping, wikis, webmail etc) in the last 3 months
-b) patches have been applied across workstation applications to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3- E8.2.2</t>
-  </si>
-  <si>
-    <t>Patching as applied to server applications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of server's applications for which:
-a) patches have not been applied across server applications (e.g. content management, record keeping, wikis, webmail etc) in the last 3 months
-b) patches have been applied across server applications to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3- E8.3</t>
-  </si>
-  <si>
-    <t>Patch operating systems
-Patch operating system vulnerabilities</t>
-  </si>
-  <si>
-    <t>Further Info</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mitigating controls where patching is not completed 90&lt; days 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Please refer to the guideline linked above</t>
-    </r>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>PR3- E8.3.1</t>
-  </si>
-  <si>
-    <t>Patching as applied to server operating systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of servers for which operating system (and basic platform component):
-a) patches have not been applied in the last 3 months
-b) patches have been applied to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3-E8.3.2</t>
-  </si>
-  <si>
-    <t>Patching as applied to workstations operating systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For workstations used to access agency information in this group estimate the approximate percentage of workstations for which operating system:
-a) patches have not been applied in the last 3 months
-b) patches have been applied to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3-E8.3.3</t>
-  </si>
-  <si>
-    <t>Patching as applied to internet exposed servers (tracking systems, email, webmail, SharePoint, transaction systems)</t>
-  </si>
-  <si>
-    <t>PR3-E8.4</t>
-  </si>
-  <si>
-    <t>Minimise users with administrative privileges 
-The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise</t>
-  </si>
-  <si>
-    <t>Additional</t>
-  </si>
-  <si>
-    <t>Processes for onboarding and offboarding staff exist (Yes/No)</t>
-  </si>
-  <si>
-    <t>Description of processes</t>
-  </si>
-  <si>
-    <t>How often are administrative  privileges reviewed?</t>
-  </si>
-  <si>
-    <t>An auditable register of admin groups is kept (Yes/No)</t>
-  </si>
-  <si>
-    <t>Comments if any</t>
-  </si>
-  <si>
-    <r>
-      <t>Percentage of staff with elevated privileges who</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> do not</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have a separate standard user account.</t>
-    </r>
-  </si>
-  <si>
-    <t>PR3-E8.4.1</t>
-  </si>
-  <si>
-    <t>Processes, policies, and procedures are designed and enforced to ensure that users with administrative privileges are tracked and managed effectively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A description of the current control sets as they relate to the prompts in the above row </t>
-  </si>
-  <si>
-    <t>PR3-E8.5</t>
-  </si>
-  <si>
-    <t>Disable untrusted Microsoft Office macros
-Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled</t>
-  </si>
-  <si>
-    <t>Risk mitigation for macro enabled workstations (evidence may be required)</t>
-  </si>
-  <si>
-    <t>Total percentage of protected fleet   (Cybersecurity Unit to review and accept)</t>
-  </si>
-  <si>
-    <t>PR3-E8.5.1</t>
-  </si>
-  <si>
-    <t>Are untrusted Microsoft Office macros disabled?</t>
-  </si>
-  <si>
-    <r>
-      <t>Has the default setting in Microsoft Office been set to '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Disable all macros with notification'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">?  </t>
-    </r>
-  </si>
-  <si>
-    <t>Example:
-Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
-  </si>
-  <si>
-    <t>PR3-E8.6</t>
-  </si>
-  <si>
-    <t>User application hardening
-Flash, Java and web ads are popular ways to deliver malware to infect computers</t>
-  </si>
-  <si>
-    <t>Percentage of browser fleet with Flash blocked</t>
-  </si>
-  <si>
-    <t>Percentage of browser fleet with Java blocked</t>
-  </si>
-  <si>
-    <t>Percentage of browser fleet with Web Ads blocked</t>
-  </si>
-  <si>
-    <t>Are controls applied automatically (Yes/No)</t>
-  </si>
-  <si>
-    <t>Where applications have not been blocked what mitigating controls exist?
-Please refer to the guideline linked above</t>
-  </si>
-  <si>
-    <t>PR3-E8.6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are the web browsers in use within your organisation sufficiently hardened to reduce the risk of compromise? </t>
-  </si>
-  <si>
-    <t>What percentage of web browsers in your organisation are sufficiently hardened to reduce the risk of compromise</t>
-  </si>
-  <si>
-    <t>PR3-E8.7</t>
-  </si>
-  <si>
-    <t>Multi-factor authentication
-Having multiple levels of authentication makes it harder for adversaries to access your information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of systems with MFA implemented </t>
-  </si>
-  <si>
-    <t>Risk management for systems/programs without MFA (evidence may be required)
-Please refer to the guideline linked above</t>
-  </si>
-  <si>
-    <t>Total percentage of treated fleet</t>
-  </si>
-  <si>
-    <t>PR3-E8.7.1</t>
-  </si>
-  <si>
-    <t>Percentage of remote/external connections protected with MFA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Including for VPNs, RDP, SSH and other remote access </t>
-  </si>
-  <si>
-    <t>PR3-E8.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of BIL:HIGH systems or programs protected with MFA </t>
-  </si>
-  <si>
-    <t>When accessing an important (PROTECTED/high-availability) data repository</t>
-  </si>
-  <si>
-    <t>PR3-E8.7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of BIL:MEDIUM systems or programs protected with MFA </t>
-  </si>
-  <si>
-    <t>When accessing an important (SENSITIVE/medium-availability) data repository</t>
-  </si>
-  <si>
-    <t>PR3-E8.7.4</t>
-  </si>
-  <si>
-    <t>Percentage of privileged accounts with MFA protections</t>
-  </si>
-  <si>
-    <t>For all users when they perform a privileged action</t>
-  </si>
-  <si>
-    <t>PR3-E8.8</t>
-  </si>
-  <si>
-    <t>Routine backup of important information
-An organisation can access up to date important information in the event of a security incident</t>
-  </si>
-  <si>
-    <t>Percentage of systems with regular backups</t>
-  </si>
-  <si>
-    <t>Average of frequency for regular backups</t>
-  </si>
-  <si>
-    <t>Risk treatment for systems/programs without regular backups (evidence may be required)
-Please refer to the guideline linked above</t>
-  </si>
-  <si>
-    <t>Additional Comments (If necessary)</t>
-  </si>
-  <si>
-    <t>PR3-E8.8.1</t>
-  </si>
-  <si>
-    <t>Are regular backups performed on BIL:HIGH systems?</t>
-  </si>
-  <si>
-    <t>Does the agency have any BIL high systems which require regular backups?  Is this backup being performed?</t>
-  </si>
-  <si>
-    <t>PR3-E8.8.2</t>
-  </si>
-  <si>
-    <t>Are regular backups performed on BIL:MEDIUM systems?</t>
-  </si>
-  <si>
-    <t>Does the agency have any BIL medium systems which require regular backups?  Is this backup being performed?</t>
   </si>
   <si>
     <t>PR4.1</t>
@@ -1474,32 +1090,6 @@
   </si>
   <si>
     <t xml:space="preserve">Essential8 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Percentage of fleet with MS Office macros disabled. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Compute devices where MSOffice installed are considered 'disabled')</t>
-    </r>
-  </si>
-  <si>
-    <t>Additional Comments (optional)</t>
-  </si>
-  <si>
-    <t>Comments (if necessary)</t>
-  </si>
-  <si>
-    <t>Percentage of fleet protected by risk treatment</t>
-  </si>
-  <si>
-    <t>0.00%</t>
   </si>
   <si>
     <t>Please fill out the following table 
@@ -1651,7 +1241,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1832,30 +1422,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2226,10 +1796,10 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2366,7 +1936,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2375,14 +1945,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2390,32 +1957,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2436,7 +1985,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -2509,14 +2058,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2592,10 +2141,10 @@
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2614,9 +2163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2635,11 +2181,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2647,6 +2193,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2677,44 +2253,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2725,12 +2271,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2748,39 +2327,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2797,7 +2343,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="158">
+  <dxfs count="77">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3376,2015 +2922,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7153,83 +4690,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="76">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="156" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="75" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{6164995D-5379-4B4B-AB4D-A1F7140BC99E}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CE9FC516-AA87-AA47-BBE7-F770B6728414}" name="PR3-E8.5" dataDxfId="58" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{3669DB3C-1E3A-F141-8792-A74B75841706}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="57" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{C2DABD41-D65D-6641-A127-793B0DC3048B}" name="Additional" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{DAAAA271-77B9-AB4B-AAAC-5A162EBFE138}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="55" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{7CEE5809-E85B-2448-AEF5-AC9430FD3194}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="54" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{E4051793-5F59-9248-B72A-8CE003B38081}" name="Additional Comments (optional)" dataDxfId="53" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{727CBA5F-574C-9845-BC3A-8F1BDF08B84A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{CE3B73D5-AE0F-4B4B-813D-F000612DF1E9}" name="Comments if any" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="70" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="68" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="67" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="66" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="65" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="64" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="62" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="61" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+  <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="57" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="53" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="51" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="50" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="49" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{70ECD7F6-D6AC-3240-8218-56049DE4BA7F}" name="PolicyR3e86" displayName="PolicyR3e86" ref="A29:I30" totalsRowShown="0" headerRowDxfId="50" headerRowCellStyle="Normal 2">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{ABD558FE-5405-D043-B5BB-041AE84D59F0}" name="PR3-E8.6" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{303CAA2D-9921-9647-B254-DC06DB896724}" name="User application hardening_x000a_Flash, Java and web ads are popular ways to deliver malware to infect computers" dataDxfId="48" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{0CC4356E-E085-504F-9702-B225CD285F2D}" name="Column1" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A6BC758D-D74F-8243-815D-12191699CD54}" name="Percentage of browser fleet with Flash blocked" dataDxfId="46" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{E080D7DD-4FFD-3647-AFCE-FBF7B1BF6D33}" name="Percentage of browser fleet with Java blocked" dataDxfId="45" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{685053C0-1F5D-3D49-9202-9344AA736821}" name="Percentage of browser fleet with Web Ads blocked" dataDxfId="44" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{1EE867B5-F7D2-2840-9E1F-8F18CB8D109D}" name="Are controls applied automatically (Yes/No)" dataDxfId="43" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{AD33364C-7E78-1542-8302-2C119DA386DF}" name="Where applications have not been blocked what mitigating controls exist?_x000a_Please refer to the guideline linked above" dataDxfId="42" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{B6DB3C65-DB36-FF4D-BF63-5DE67CD5B4DD}" name="Comments" dataDxfId="41" dataCellStyle="Note 2"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="44" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="43" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="41" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1CBC12C9-0E29-CF4D-A38C-72F34E4C71C3}" name="PolicyR3e87" displayName="PolicyR3e87" ref="A32:H36" totalsRowShown="0" headerRowDxfId="40" headerRowCellStyle="Normal 2">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B08649A6-9535-7B4B-9424-F2639303533F}" name="PR3-E8.7" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{D48AFAF8-16EA-C845-AF2F-10692860E891}" name="Multi-factor authentication_x000a_Having multiple levels of authentication makes it harder for adversaries to access your information" dataDxfId="38" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{FDC5B4FA-B16F-8149-8A50-B6CB863487B7}" name="Additional Guidance" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{85DEFC89-F7A4-684F-B7E3-20CC758955F0}" name="Percentage of systems with MFA implemented " dataDxfId="36" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{79953AC3-51E3-C94F-8676-8C9A8AB50A37}" name="Risk management for systems/programs without MFA (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="35" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{A5563CCD-B19B-0240-90F5-A6712C4A1494}" name="0.00%" dataDxfId="34" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{ACD54980-3C93-7D49-A6BD-BBFAB2AAFB0E}" name="Total percentage of treated fleet" dataDxfId="33" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5E3AC24B-E9E9-DC49-A6CA-54229C73431B}" name="Comments (if necessary)" dataDxfId="32" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DB2CE024-B531-E342-9F15-E0DD01332C25}" name="PolicyR3e88" displayName="PolicyR3e88" ref="A38:I40" totalsRowShown="0" headerRowDxfId="31" headerRowCellStyle="Normal 2">
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DA115D66-DA77-C34E-8E5E-B8F3C0C102A3}" name="PR3-E8.8" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{9455DCEF-0621-DE49-A430-2A4CF43CD784}" name="Routine backup of important information_x000a_An organisation can access up to date important information in the event of a security incident" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{51B2ADE2-B198-5B4A-968A-A4EDBA1A9108}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D512B5CB-2D4B-824E-8183-8E8EB4D9B912}" name="Percentage of systems with regular backups" dataDxfId="27" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{49FB7ABB-12D6-CA4B-8FE2-17A97BE874DE}" name="Average of frequency for regular backups" dataDxfId="26" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{6E8FABA8-1A3F-014E-9E5E-0A0D3D2053FA}" name="Risk treatment for systems/programs without regular backups (evidence may be required)_x000a_Please refer to the guideline linked above" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{6FDF44B6-9E44-0D45-8744-514DDA774A8A}" name="Additional Comments (If necessary)" dataDxfId="24" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0CAFDF03-65F7-624A-930C-DA94F38CE317}" name="Percentage of fleet protected by risk treatment" dataDxfId="23" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{BDF24C57-E5F2-C34C-ABA8-BDA3246C3A51}" name="Total percentage of treated fleet" dataDxfId="22" dataCellStyle="20% - Accent2"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28" headerRowCellStyle="Normal 2">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="24" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="23" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="22" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
@@ -7245,7 +4799,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
@@ -7254,146 +4808,6 @@
     <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
     <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
     <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="153" dataDxfId="152" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="151" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="150"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="149" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="148" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="147" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="146" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="145" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="144" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="143" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="142" dataCellStyle="Normal 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140" tableBorderDxfId="139">
-  <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="138" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="137" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="136" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="135" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="134" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="133" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="132" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="131" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="130" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="129" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="128" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="127" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="126" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="125" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="124" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="123" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="122" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="117"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="115"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="113"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="112"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110" tableBorderDxfId="109" headerRowCellStyle="Normal 2">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="108" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="107" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="106" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="105" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="104" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="103" dataCellStyle="20% - Accent2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4A653377-3B06-4E4A-B9FE-6F7AFAEF870E}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{38A2B7C7-36B5-0248-9C05-1D30EB7012A6}" name="PR3-E8.2" dataDxfId="99" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{36EC25F1-0F27-8F42-AD9D-0FB4BD449E5E}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="98" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{A6E05A73-5280-694B-AF7B-DCD7628C15D8}" name="Further info" dataDxfId="97" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{4F1FE591-975E-AA43-8EE0-752A718683B0}" name="Patched within 30 days" dataDxfId="96" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{95D79516-8785-5544-BD66-2F7886023490}" name="Patched within 31 - 60 days" dataDxfId="95" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{6BD9E1EE-746A-8C4C-B93D-97F4B21589D6}" name="Patched within 61 - 90 days" dataDxfId="94" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{21E07EB9-3359-B146-8C2F-1589448C7512}" name="Total percentage of fleet" dataDxfId="93" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{100E28B4-5F1A-7149-BCD0-2F81D71C63FA}" name="Evidence of risk managements and patching timelines" dataDxfId="92" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{11B20269-D6B6-4243-B6D9-B9EDABE53A67}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="91" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{3344BFCF-1E79-F845-B1E2-12A9A624276F}" name="Comments" dataDxfId="90" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{A2577072-69D1-9E45-BC10-25C63EA9FCA0}" name="Column2" dataDxfId="89" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4C910E91-0772-5946-8CF6-491D3F781DD4}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B01B4419-95A1-4A4D-A007-B9D68D4BAEEE}" name="PR3- E8.3" dataDxfId="85" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4084D5B9-3637-E84B-B64B-B744ECD22695}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="84" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{7A506EEE-AC6E-1D45-BBEC-D0A3A38F7A3C}" name="Further Info" dataDxfId="83" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{75FD2D4A-3C8E-A94D-ABEE-459981A207FA}" name="Patched within 30 days" dataDxfId="82" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{BEBA4F56-5935-6141-A9B9-BD421EF965B9}" name="Patched within 31 - 60 days" dataDxfId="81" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{89F2300D-D94E-A14B-B143-2D11B8745B9E}" name="Patched within 61 - 90 days" dataDxfId="80" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{4FC0588E-77D2-9043-AEA4-7E8982A010E6}" name="Total percentage of fleet" dataDxfId="79" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{6A8FC5A5-2C05-2C46-BC02-244BEF0E6A8E}" name="Evidence of risk managements and patching timelines" dataDxfId="78" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{AA998B18-3D09-9342-8A83-DFDAD4548DA8}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="77" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{131221C9-97E7-0E46-9F58-C0D0FFA3F185}" name="Comments" dataDxfId="76" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CC2F6E8F-96F3-1049-AF0F-AE501858D7B0}" name="Column1" dataDxfId="75" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{77C3F932-AF6B-2644-9FE3-9CB36F4B1FC3}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{66306BC1-EBE7-DC49-AD9D-014EF58F50F2}" name="PR3-E8.4" dataDxfId="71" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{D000608A-BE3C-4C43-BACD-CBF6E4DC7FBC}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{E5B708A5-5F05-B845-A9EA-4C77A1D25F4B}" name="Additional" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{AEB61448-A230-F340-B550-1ADA4BF0438A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="68" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{8D281868-BDAC-374E-BCDD-F0A01E639B60}" name="Description of processes" dataDxfId="67" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{E3D523DA-A32C-4E47-869A-8266DB5CA422}" name="How often are administrative  privileges reviewed?" dataDxfId="66" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{2477BA2B-7257-0A48-A871-D2F6CB040CDF}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="65" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5A19C787-3EEC-AA4E-9F31-60990E37CBCF}" name="Comments if any" dataDxfId="64" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{1273A66A-0DE4-C846-A632-953F2501882D}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="63" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="10" xr3:uid="{E080A59B-5F00-F347-AF1F-4D9A3F571BC6}" name="Comments" dataDxfId="62" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{8FC89C23-49CA-6C4C-987F-6BC7ADC46147}" name="Column1" dataDxfId="61" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7708,174 +5122,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="176" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="178"/>
+      <c r="A5" s="155" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="170" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
+      <c r="A6" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="160" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="A7" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="168"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
+      <c r="A11" s="169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="156" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -7904,18 +5318,18 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7970,23 +5384,23 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="A1" s="173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8041,23 +5455,23 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="A1" s="173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8113,23 +5527,23 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="A1" s="173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8188,18 +5602,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="154" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
+      <c r="A1" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>363</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -8226,18 +5640,18 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="181" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
+      <c r="A1" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -8299,17 +5713,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -8337,134 +5751,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
+      <c r="A1" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="A2" s="185" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
+      <c r="A3" s="185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
-        <v>270</v>
-      </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="A4" s="185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="183" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="A5" s="185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
+      <c r="A7" s="179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
+      <c r="A8" s="185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
+      <c r="A9" s="179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
+      <c r="A10" s="177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -8478,43 +5892,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
+      <c r="A12" s="179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="194" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
+      <c r="A13" s="176" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="190" t="s">
-        <v>278</v>
-      </c>
-      <c r="B14" s="191"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="191"/>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
+      <c r="A14" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -8528,134 +5942,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
-        <v>279</v>
-      </c>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
+      <c r="A16" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="195" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
+      <c r="A17" s="180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="196" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="197"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="197"/>
+      <c r="A18" s="181" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="198" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
+      <c r="A19" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="199" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
+      <c r="A20" s="184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
+      <c r="A21" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" s="182"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
+      <c r="A22" s="179" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
+      <c r="A23" s="186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="182"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="182"/>
+      <c r="A24" s="179" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -8674,6 +6088,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -8686,18 +6112,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8733,14 +6147,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="117" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="118" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -8749,105 +6163,105 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="119" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="123"/>
+      <c r="C4" s="116"/>
     </row>
     <row r="5" spans="1:3" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
-        <v>310</v>
+      <c r="A5" s="120" t="s">
+        <v>222</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>312</v>
+        <v>223</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="118" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>314</v>
+        <v>223</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="121" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="136"/>
+        <v>225</v>
+      </c>
+      <c r="C7" s="129"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="26">
         <v>468463789</v>
       </c>
-      <c r="C8" s="123"/>
+      <c r="C8" s="116"/>
     </row>
     <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="129"/>
     </row>
     <row r="10" spans="1:3" ht="78.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="123" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="21">
         <v>0</v>
       </c>
-      <c r="C10" s="132" t="s">
-        <v>315</v>
+      <c r="C10" s="125" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="124" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="29">
         <v>0</v>
       </c>
-      <c r="C11" s="137" t="s">
-        <v>316</v>
+      <c r="C11" s="130" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="125" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="139"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="142"/>
+      <c r="C14" s="135"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8879,53 +6293,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" style="81" customWidth="1"/>
-    <col min="2" max="6" width="28.77734375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="81" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="81" customWidth="1"/>
-    <col min="9" max="9" width="55.21875" style="81" customWidth="1"/>
-    <col min="10" max="10" width="0" style="81" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="81"/>
+    <col min="1" max="1" width="37.21875" style="74" customWidth="1"/>
+    <col min="2" max="6" width="28.77734375" style="74" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="55.21875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="0" style="74" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="69" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>32</v>
@@ -8937,7 +6351,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="G2" s="35" t="s">
         <v>34</v>
@@ -8945,19 +6359,19 @@
       <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="77" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="104" t="s">
+      <c r="I2" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="97" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>37</v>
@@ -8969,7 +6383,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>361</v>
+        <v>268</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>39</v>
@@ -8977,16 +6391,16 @@
       <c r="H3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="J3" s="104" t="s">
+      <c r="I3" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="97" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="199.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>41</v>
@@ -9001,7 +6415,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>360</v>
+        <v>267</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>44</v>
@@ -9009,10 +6423,10 @@
       <c r="H4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="97" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9039,382 +6453,382 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="81"/>
-    <col min="2" max="2" width="21.21875" style="81" customWidth="1"/>
-    <col min="3" max="3" width="33" style="81" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="81" customWidth="1"/>
-    <col min="5" max="6" width="51.77734375" style="81" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="81" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="81" customWidth="1"/>
-    <col min="9" max="9" width="17" style="81" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="81"/>
+    <col min="1" max="1" width="8.77734375" style="74"/>
+    <col min="2" max="2" width="21.21875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="33" style="74" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="74" customWidth="1"/>
+    <col min="5" max="6" width="51.77734375" style="74" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="74" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="17" style="74" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="102" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:9" s="95" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="99" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="99" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" s="100" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="98" t="s">
+      <c r="E1" s="92" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="102" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:9" s="95" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="113" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="112"/>
+      <c r="I2" s="105"/>
     </row>
     <row r="3" spans="1:9" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="85" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="I3" s="59" t="s">
+      <c r="E3" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="85" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="84" t="s">
+      <c r="E4" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="345" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="I5" s="59" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="195" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="I6" s="59" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="58" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="90" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="I8" s="59" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="138" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="58" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="146" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="59" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="138" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="58" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="59" t="s">
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="58" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="59" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="59" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="I13" s="59" t="s">
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="137" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="145" t="s">
-        <v>340</v>
-      </c>
-      <c r="I14" s="59" t="s">
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="137" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="59" t="s">
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="59" t="s">
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="58" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9455,52 +6869,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="75"/>
-    <col min="2" max="3" width="53.77734375" style="75" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="75" customWidth="1"/>
-    <col min="6" max="6" width="28" style="75" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="75" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="75"/>
+    <col min="1" max="1" width="8.77734375" style="68"/>
+    <col min="2" max="3" width="53.77734375" style="68" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="68" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="28" style="68" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" s="79" t="s">
+      <c r="D1" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="72" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83" t="s">
-        <v>303</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="113" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="106" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9508,33 +6922,33 @@
       <c r="A3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="E3" s="122" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="80" t="s">
-        <v>340</v>
+      <c r="D3" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="73" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="102"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="95"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9550,14 +6964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9590,10 +7004,10 @@
         <v>123</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>51</v>
@@ -9603,40 +7017,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="48" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="113"/>
+      <c r="C2" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="271.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="153"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+        <v>266</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -9646,14 +7060,16 @@
         <v>127</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>203</v>
+      </c>
       <c r="E4" s="48" t="s">
-        <v>342</v>
+        <v>249</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>128</v>
@@ -9667,9 +7083,11 @@
         <v>130</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="74"/>
+        <v>201</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="H5" s="48" t="s">
         <v>131</v>
       </c>
@@ -9682,42 +7100,44 @@
         <v>133</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="74"/>
+        <v>202</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>203</v>
+      </c>
       <c r="H6" s="48" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="152" t="s">
-        <v>358</v>
+      <c r="B8" s="144" t="s">
+        <v>265</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>337</v>
+        <v>244</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>338</v>
+        <v>245</v>
       </c>
       <c r="E8" s="48"/>
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73"/>
-      <c r="B9" s="105"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="12"/>
@@ -9792,655 +7212,114 @@
       <c r="F13" s="56"/>
       <c r="H13" s="50"/>
     </row>
-    <row r="14" spans="1:11" ht="95.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="172" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="56">
-        <v>0</v>
-      </c>
-      <c r="E15" s="56">
-        <v>0</v>
-      </c>
-      <c r="F15" s="56">
-        <v>0</v>
-      </c>
-      <c r="G15" s="56">
-        <v>0</v>
-      </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-    </row>
-    <row r="16" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="56">
-        <v>0</v>
-      </c>
-      <c r="E16" s="56">
-        <v>0</v>
-      </c>
-      <c r="F16" s="56">
-        <v>0</v>
-      </c>
-      <c r="G16" s="56">
-        <v>0</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="K16" s="172"/>
+    </row>
+    <row r="17" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-    </row>
-    <row r="18" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0</v>
-      </c>
-      <c r="E19" s="56">
-        <v>0</v>
-      </c>
-      <c r="F19" s="56">
-        <v>0</v>
-      </c>
-      <c r="G19" s="56">
-        <v>0</v>
-      </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="56">
-        <v>0</v>
-      </c>
-      <c r="E20" s="56">
-        <v>0</v>
-      </c>
-      <c r="F20" s="56">
-        <v>0</v>
-      </c>
-      <c r="G20" s="56">
-        <v>0</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="56">
-        <v>0</v>
-      </c>
-      <c r="E21" s="56">
-        <v>0</v>
-      </c>
-      <c r="F21" s="56">
-        <v>0</v>
-      </c>
-      <c r="G21" s="56">
-        <v>0</v>
-      </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="56">
-        <v>0</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="63"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="63"/>
+    </row>
+    <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="56"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>332</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="180" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="180"/>
-    </row>
-    <row r="27" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="56">
-        <v>0</v>
-      </c>
-      <c r="E27" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56">
-        <v>0</v>
-      </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-    </row>
-    <row r="28" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-    </row>
-    <row r="29" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="56">
-        <v>0</v>
-      </c>
-      <c r="E30" s="56">
-        <v>0</v>
-      </c>
-      <c r="F30" s="56">
-        <v>0</v>
-      </c>
-      <c r="G30" s="66"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" ht="98.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F32" s="143" t="s">
-        <v>336</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="I32" s="52"/>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="56">
-        <v>0</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="69">
-        <v>0</v>
-      </c>
-      <c r="G33" s="56">
-        <v>0</v>
-      </c>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="56">
-        <v>0</v>
-      </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="69">
-        <v>0</v>
-      </c>
-      <c r="G34" s="56">
-        <v>0</v>
-      </c>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="56">
-        <v>0</v>
-      </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="69">
-        <v>0</v>
-      </c>
-      <c r="G35" s="56">
-        <v>0</v>
-      </c>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D36" s="56">
-        <v>0</v>
-      </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="69">
-        <v>0</v>
-      </c>
-      <c r="G36" s="56">
-        <v>0</v>
-      </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-    </row>
-    <row r="37" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-    </row>
-    <row r="38" spans="1:11" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>335</v>
-      </c>
-      <c r="I38" s="58" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="D39" s="56">
-        <v>0</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="56">
-        <v>0</v>
-      </c>
-      <c r="I39" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="56">
-        <v>0</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="56">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56">
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="26" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+    </row>
+    <row r="28" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="98.55" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="I23:I28 F10:H10 G32:G36 I37:I40" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="I15:I18 I25 G10:H10" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10454,17 +7333,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-  <tableParts count="9">
+  <tableParts count="2">
+    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -10519,7 +7390,7 @@
         <v>50</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>51</v>
@@ -10529,49 +7400,49 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="114" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="107" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="337.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="F3" s="44"/>
-      <c r="G3" s="115"/>
+      <c r="G3" s="108"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="114"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10612,33 +7483,33 @@
         <v>46</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="409.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -10671,61 +7542,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="150" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="151" t="s">
-        <v>244</v>
+      <c r="B1" s="142" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>344</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="125.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="149" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="141" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="C7" s="14"/>
     </row>
     <row r="8" spans="2:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>345</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -10733,7 +7604,7 @@
     </row>
     <row r="11" spans="2:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10741,10 +7612,10 @@
     </row>
     <row r="12" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -10752,10 +7623,10 @@
     </row>
     <row r="13" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>343</v>
+        <v>250</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -10763,7 +7634,7 @@
     </row>
     <row r="14" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="10"/>
@@ -10771,57 +7642,57 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="148" t="s">
-        <v>355</v>
+      <c r="B15" s="140" t="s">
+        <v>262</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="147" t="s">
-        <v>350</v>
+      <c r="B16" s="139" t="s">
+        <v>257</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" ht="346.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>348</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -10839,31 +7710,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11110,27 +7962,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11155,9 +8017,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA038D92-FDF7-45A8-8556-0403782BFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66934AA-B1D0-4725-B47C-F20467025620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
+    <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
   <sheets>
     <sheet name="1-DoesMyAgencyNeedtoComplete" sheetId="13" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="287">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1231,6 +1231,62 @@
   </si>
   <si>
     <t>Guideline for conducting Essential Eight reviews</t>
+  </si>
+  <si>
+    <t>PR3-E8.2</t>
+  </si>
+  <si>
+    <t>Patch applications 
+Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers</t>
+  </si>
+  <si>
+    <t>Further info</t>
+  </si>
+  <si>
+    <t>Patched within 30 days</t>
+  </si>
+  <si>
+    <t>Patched within 31 - 60 days</t>
+  </si>
+  <si>
+    <t>Patched within 61 - 90 days</t>
+  </si>
+  <si>
+    <t>Total percentage of fleet</t>
+  </si>
+  <si>
+    <t>Evidence of risk managements and patching timelines</t>
+  </si>
+  <si>
+    <t>Mitigating controls where patching is not completed 90&lt; days 
+Please refer to the guideline linked above</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>PR3- E8.2.1</t>
+  </si>
+  <si>
+    <t>Patching as applied to workstation applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For applications used in this group estimate the approximate percentage of workstation applications for which:
+a) patches have not been applied across workstation applications (e.g. content management, record keeping, wikis, webmail etc) in the last 3 months
+b) patches have been applied across workstation applications to became fully patched in the last 3 months
+</t>
+  </si>
+  <si>
+    <t>PR3- E8.2.2</t>
+  </si>
+  <si>
+    <t>Patching as applied to server applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of server's applications for which:
+a) patches have not been applied across server applications (e.g. content management, record keeping, wikis, webmail etc) in the last 3 months
+b) patches have been applied across server applications to became fully patched in the last 3 months
+</t>
   </si>
 </sst>
 </file>
@@ -1957,9 +2013,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2193,6 +2246,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2211,9 +2312,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2223,54 +2321,42 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2280,15 +2366,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2305,28 +2382,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2343,7 +2399,339 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="91">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4690,124 +5078,143 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="90">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="75" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="89" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="70" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="68" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="67" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="66" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="65" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="64" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="63" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="62" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="61" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="84" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="82" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="81" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="79" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="77" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="76" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="75" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="57" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="53" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="51" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="50" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="71" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="67" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="65" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="64" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="63" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="44" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="43" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="41" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="61" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="60" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="59" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="58" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="55" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="24" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="23" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="22" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="38" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="36" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="12" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="11" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="7" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="6" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="5" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="4" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="3" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="2" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="0" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="15" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="14" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5122,174 +5529,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="168"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="167"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="158"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="158" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -5602,14 +6009,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -5751,134 +6158,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="175" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="175" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="192"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="181"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="175" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5892,43 +6299,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -5942,134 +6349,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
+      <c r="A16" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="187" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184" t="s">
+      <c r="A20" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="175" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="192" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="174" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -6088,6 +6495,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -6100,18 +6519,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -6147,14 +6554,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="116" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="117" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -6163,105 +6570,105 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="118" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="116"/>
+      <c r="C4" s="115"/>
     </row>
     <row r="5" spans="1:3" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="117" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="127" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="120" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="129"/>
+      <c r="C7" s="128"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="26">
         <v>468463789</v>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="115"/>
     </row>
     <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="123"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="128"/>
     </row>
     <row r="10" spans="1:3" ht="78.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="21">
         <v>0</v>
       </c>
-      <c r="C10" s="125" t="s">
+      <c r="C10" s="124" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="123" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="29">
         <v>0</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="129" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="131"/>
+      <c r="C12" s="130"/>
     </row>
     <row r="13" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="131"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="135"/>
+      <c r="C14" s="134"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6293,44 +6700,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" style="74" customWidth="1"/>
-    <col min="2" max="6" width="28.77734375" style="74" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="74" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="55.21875" style="74" customWidth="1"/>
-    <col min="10" max="10" width="0" style="74" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="74"/>
+    <col min="1" max="1" width="37.21875" style="73" customWidth="1"/>
+    <col min="2" max="6" width="28.77734375" style="73" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="73" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="55.21875" style="73" customWidth="1"/>
+    <col min="10" max="10" width="0" style="73" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="68" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6359,10 +6766,10 @@
       <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="69" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="96" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6391,10 +6798,10 @@
       <c r="H3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="96" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6423,10 +6830,10 @@
       <c r="H4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="96" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6453,88 +6860,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="74"/>
-    <col min="2" max="2" width="21.21875" style="74" customWidth="1"/>
-    <col min="3" max="3" width="33" style="74" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="74" customWidth="1"/>
-    <col min="5" max="6" width="51.77734375" style="74" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="74" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="74" customWidth="1"/>
-    <col min="9" max="9" width="17" style="74" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="74"/>
+    <col min="1" max="1" width="8.77734375" style="73"/>
+    <col min="2" max="2" width="21.21875" style="73" customWidth="1"/>
+    <col min="3" max="3" width="33" style="73" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="73" customWidth="1"/>
+    <col min="5" max="6" width="51.77734375" style="73" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="73" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="73" customWidth="1"/>
+    <col min="9" max="9" width="17" style="73" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="95" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:9" s="94" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="93" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="95" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:9" s="94" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="106" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="105"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="1:9" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="136" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="135" t="s">
         <v>246</v>
       </c>
       <c r="I3" s="58" t="s">
@@ -6542,24 +6949,24 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="77" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="76" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="58" t="s">
@@ -6567,22 +6974,22 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="345" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="136" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="135" t="s">
         <v>246</v>
       </c>
       <c r="I5" s="58" t="s">
@@ -6590,22 +6997,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="195" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="136" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="135" t="s">
         <v>246</v>
       </c>
       <c r="I6" s="58" t="s">
@@ -6613,22 +7020,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="83" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="82" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -6636,22 +7043,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="138" t="s">
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="137" t="s">
         <v>248</v>
       </c>
       <c r="I8" s="58" t="s">
@@ -6659,22 +7066,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="138" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="137" t="s">
         <v>248</v>
       </c>
       <c r="I9" s="58" t="s">
@@ -6682,85 +7089,85 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="84"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="83"/>
       <c r="I10" s="58" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="84"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="84"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="137" t="s">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="136" t="s">
         <v>247</v>
       </c>
       <c r="I13" s="58" t="s">
@@ -6768,22 +7175,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="137" t="s">
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="136" t="s">
         <v>247</v>
       </c>
       <c r="I14" s="58" t="s">
@@ -6791,43 +7198,43 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="84"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="58" t="s">
         <v>117</v>
       </c>
@@ -6869,52 +7276,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="68"/>
-    <col min="2" max="3" width="53.77734375" style="68" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="68" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="28" style="68" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="68"/>
+    <col min="1" max="1" width="8.77734375" style="67"/>
+    <col min="2" max="3" width="53.77734375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="28" style="67" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="67" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="71" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="106" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="105" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6922,33 +7329,33 @@
       <c r="A3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="114" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="72" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="95"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="94"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6970,8 +7377,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,40 +7424,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="48" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="106"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="271.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="145"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -7062,7 +7469,7 @@
       <c r="C4" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="48" t="s">
@@ -7085,7 +7492,7 @@
       <c r="C5" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>205</v>
       </c>
       <c r="H5" s="48" t="s">
@@ -7102,7 +7509,7 @@
       <c r="C6" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>203</v>
       </c>
       <c r="H6" s="48" t="s">
@@ -7110,20 +7517,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
     </row>
     <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="143" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="48" t="s">
@@ -7136,8 +7543,8 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="12"/>
@@ -7212,46 +7619,94 @@
       <c r="F13" s="56"/>
       <c r="H13" s="50"/>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+    <row r="14" spans="1:11" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="J14" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="148" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="56">
+        <v>0</v>
+      </c>
+      <c r="E15" s="56">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56">
+        <v>0</v>
+      </c>
+      <c r="G15" s="56">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="172" t="s">
-        <v>146</v>
-      </c>
-      <c r="K16" s="172"/>
+      <c r="A16" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0</v>
+      </c>
+      <c r="F16" s="56">
+        <v>0</v>
+      </c>
+      <c r="G16" s="56">
+        <v>0</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
     </row>
     <row r="17" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
@@ -7260,11 +7715,11 @@
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
@@ -7280,24 +7735,24 @@
       <c r="K18" s="58"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I19" s="62"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="63"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="58"/>
       <c r="K21" s="58"/>
     </row>
     <row r="22" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="63"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="63"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="63"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="56"/>
@@ -7313,13 +7768,12 @@
     <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="I15:I18 I25 G10:H10" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I25 I17:I18" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7333,9 +7787,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7400,19 +7855,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="107" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="106" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7433,16 +7888,16 @@
         <v>150</v>
       </c>
       <c r="F3" s="44"/>
-      <c r="G3" s="108"/>
+      <c r="G3" s="107"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7542,10 +7997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="141" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="142" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7573,7 +8028,7 @@
       <c r="B6" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="140" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7642,13 +8097,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>262</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="138" t="s">
         <v>257</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -7710,12 +8165,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7962,37 +8436,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8017,18 +8481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66934AA-B1D0-4725-B47C-F20467025620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DE94C-8AB5-4813-866F-94BBC2C3E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -67,8 +67,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dan</author>
+  </authors>
+  <commentList>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{4D4D3E7C-E45C-4BDD-818B-80A96D8FC81D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="322">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1288,6 +1331,185 @@
 b) patches have been applied across server applications to became fully patched in the last 3 months
 </t>
   </si>
+  <si>
+    <t>PR3- E8.3</t>
+  </si>
+  <si>
+    <t>Patch operating systems
+Patch operating system vulnerabilities</t>
+  </si>
+  <si>
+    <t>Further Info</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mitigating controls where patching is not completed 90&lt; days 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Please refer to the guideline linked above</t>
+    </r>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>PR3- E8.3.1</t>
+  </si>
+  <si>
+    <t>Patching as applied to server operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of servers for which operating system (and basic platform component):
+a) patches have not been applied in the last 3 months
+b) patches have been applied to became fully patched in the last 3 months
+</t>
+  </si>
+  <si>
+    <t>PR3-E8.3.2</t>
+  </si>
+  <si>
+    <t>Patching as applied to workstations operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For workstations used to access agency information in this group estimate the approximate percentage of workstations for which operating system:
+a) patches have not been applied in the last 3 months
+b) patches have been applied to became fully patched in the last 3 months
+</t>
+  </si>
+  <si>
+    <t>PR3-E8.3.3</t>
+  </si>
+  <si>
+    <t>Patching as applied to internet exposed servers (tracking systems, email, webmail, SharePoint, transaction systems)</t>
+  </si>
+  <si>
+    <t>PR3-E8.4</t>
+  </si>
+  <si>
+    <t>Minimise users with administrative privileges 
+The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Processes for onboarding and offboarding staff exist (Yes/No)</t>
+  </si>
+  <si>
+    <t>Description of processes</t>
+  </si>
+  <si>
+    <t>How often are administrative  privileges reviewed?</t>
+  </si>
+  <si>
+    <t>An auditable register of admin groups is kept (Yes/No)</t>
+  </si>
+  <si>
+    <t>Comments if any</t>
+  </si>
+  <si>
+    <r>
+      <t>Percentage of staff with elevated privileges who</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do not</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have a separate standard user account.</t>
+    </r>
+  </si>
+  <si>
+    <t>PR3-E8.4.1</t>
+  </si>
+  <si>
+    <t>Processes, policies, and procedures are designed and enforced to ensure that users with administrative privileges are tracked and managed effectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the current control sets as they relate to the prompts in the above row </t>
+  </si>
+  <si>
+    <t>PR3-E8.5</t>
+  </si>
+  <si>
+    <t>Disable untrusted Microsoft Office macros
+Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of fleet with MS Office macros disabled. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Compute devices where MSOffice installed are considered 'disabled')</t>
+    </r>
+  </si>
+  <si>
+    <t>Risk mitigation for macro enabled workstations (evidence may be required)</t>
+  </si>
+  <si>
+    <t>Additional Comments (optional)</t>
+  </si>
+  <si>
+    <t>Total percentage of protected fleet   (Cybersecurity Unit to review and accept)</t>
+  </si>
+  <si>
+    <t>PR3-E8.5.1</t>
+  </si>
+  <si>
+    <t>Are untrusted Microsoft Office macros disabled?</t>
+  </si>
+  <si>
+    <r>
+      <t>Has the default setting in Microsoft Office been set to '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Disable all macros with notification'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?  </t>
+    </r>
+  </si>
+  <si>
+    <t>Example:
+Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
+  </si>
 </sst>
 </file>
 
@@ -1297,7 +1519,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,6 +1759,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1855,7 +2097,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2252,6 +2494,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2282,9 +2557,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2294,45 +2566,51 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,38 +2629,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2399,7 +2662,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="129">
     <dxf>
       <font>
         <b val="0"/>
@@ -2413,17 +2676,18 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2438,17 +2702,18 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2500,7 +2765,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2541,18 +2806,17 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2567,18 +2831,17 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2593,18 +2856,17 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2619,6 +2881,31 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -2629,7 +2916,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2654,7 +2941,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2679,7 +2966,588 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3310,6 +4178,338 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5078,143 +6278,197 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="128">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="89" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="127" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="4" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="3" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="2" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="1" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="0" dataCellStyle="20% - Accent2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="51" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="50" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="39" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="38" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="84" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="82" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="81" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="80" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="79" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="78" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="77" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="76" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="75" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="122" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="120" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="119" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="118" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="117" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="116" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="115" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="114" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="113" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="71" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="67" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="66" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="65" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="64" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="63" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="109" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="108" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="107" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="106" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="105" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="104" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="103" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="102" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="101" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="100" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="61" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="60" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="59" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="58" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="98" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="97" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="96" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="95" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="94" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="93" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="38" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="36" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="79" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="78" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="77" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="76" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="75" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="74" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="7" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="6" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="5" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="4" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="3" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="2" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="0" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="67" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="65" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="64" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="63" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="62" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="61" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="60" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1B802240-02C4-4A7B-9224-640658E1E856}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{9A0BCC48-168C-41CF-9509-CC4AFB1DAAD0}" name="PR3- E8.3" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{AECD3743-74A3-49C2-BCB7-458EA311C5D7}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F61B2ADE-5195-4559-9A36-F78D933981C2}" name="Further Info" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{0A72EA67-00BE-409F-85CF-800A13E0ED04}" name="Patched within 30 days" dataDxfId="31" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{0A8B9F98-98C2-495E-AF23-A1EF75C4D73F}" name="Patched within 31 - 60 days" dataDxfId="30" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{23AAD462-CA67-4BD6-A4CF-005557D82A00}" name="Patched within 61 - 90 days" dataDxfId="29" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{A938EE0B-133D-4BE1-83C3-5A63DC26083D}" name="Total percentage of fleet" dataDxfId="28" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{7B4483E1-328B-47C3-ABC1-AA288784EA04}" name="Evidence of risk managements and patching timelines" dataDxfId="27" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{CE1F0213-0C56-45FE-BE2D-924D48A98DEC}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="26" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{215EEE9E-33AE-4214-889D-B23E62268325}" name="Comments" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{75361598-A603-43E4-96DF-0FC9B1E9D02D}" name="Column1" dataDxfId="24" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="15" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="14" dataCellStyle="Hyperlink"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0359F30-7E05-4DE9-816D-C6DE92A25FB8}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{A6EBEA67-3FC3-4D11-BF7C-F53687E58B85}" name="PR3-E8.4" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{81940C5A-ED34-4C4C-923C-4D155A033CC6}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{E039BF55-47FE-4163-8810-B3AC42B5A73E}" name="Additional" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A1F59B11-D37D-41C5-8DD5-22B92A400759}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="17" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{15F894DD-BE1D-4020-8D1D-837E67F700BC}" name="Description of processes" dataDxfId="16" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{D25BD7C9-90A1-4736-854C-30D850B9EB2D}" name="How often are administrative  privileges reviewed?" dataDxfId="15" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{5E4431FA-2634-425D-8183-6C79EC2097BD}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="14" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{F8149A54-E4D5-4584-AEA1-009EFE00AC2E}" name="Comments if any" dataDxfId="13" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{564663A5-7EB2-4C0C-B524-284F09201A79}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="12" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="10" xr3:uid="{C8CED917-D375-4C00-A6F5-3FDBF075440B}" name="Comments" dataDxfId="11" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{2F170816-AE5A-47D0-B62F-29249D7995BF}" name="Column1" dataDxfId="10" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5529,43 +6783,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="98"/>
@@ -5579,124 +6833,124 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="159"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="165"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="170"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="166"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="169"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="101"/>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -5725,14 +6979,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5791,14 +7045,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5862,14 +7116,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5934,14 +7188,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6047,14 +7301,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6158,134 +7412,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="186" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="186" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="179"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="181"/>
+      <c r="F6" s="191"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="186" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6299,43 +7553,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="177" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -6349,134 +7603,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="181" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="184" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191" t="s">
+      <c r="A20" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="185"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="186" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="175"/>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="192" t="s">
+      <c r="A23" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="192"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="185"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -6495,6 +7749,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -6507,18 +7773,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -7371,14 +8625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,49 +8972,242 @@
       <c r="G17" s="60"/>
       <c r="H17" s="61"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I19" s="61"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="I20" s="52"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="173"/>
+    </row>
+    <row r="18" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="194" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="148" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="195" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+    </row>
+    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="195" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>0</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20" s="56">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I21" s="62"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="A21" s="196" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>0</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
     </row>
     <row r="22" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="62"/>
+      <c r="A23" s="194" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="148" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="148" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="148" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I24" s="62"/>
+      <c r="A24" s="196" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="197"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="56">
+        <v>0</v>
+      </c>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
     </row>
     <row r="25" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="56"/>
     </row>
-    <row r="26" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="198" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="198"/>
+    </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
+      <c r="A27" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="56">
+        <v>0</v>
+      </c>
+      <c r="E27" s="199" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56">
+        <v>0</v>
+      </c>
+      <c r="H27" s="56"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="28" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7768,12 +9215,14 @@
     <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I25 I17:I18" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I25:I27 I17" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7787,10 +9236,14 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <tableParts count="3">
-    <tablePart r:id="rId5"/>
+  <legacyDrawing r:id="rId5"/>
+  <tableParts count="6">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -8165,31 +9618,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8436,27 +9870,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8481,9 +9925,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DE94C-8AB5-4813-866F-94BBC2C3E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9688AEB-7052-4EE2-B88B-09D9E9E592A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2497,6 +2497,63 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2515,9 +2572,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2527,51 +2581,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,15 +2629,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2606,46 +2645,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2665,6 +2665,585 @@
   <dxfs count="129">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3599,585 +4178,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6289,46 +6289,46 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="4" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="3" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="2" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="1" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="0" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="24" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="23" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="22" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="53" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="52" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="51" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="50" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="49" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="12" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="11" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="39" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="38" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6437,38 +6437,38 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1B802240-02C4-4A7B-9224-640658E1E856}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1B802240-02C4-4A7B-9224-640658E1E856}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9A0BCC48-168C-41CF-9509-CC4AFB1DAAD0}" name="PR3- E8.3" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{AECD3743-74A3-49C2-BCB7-458EA311C5D7}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{F61B2ADE-5195-4559-9A36-F78D933981C2}" name="Further Info" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{0A72EA67-00BE-409F-85CF-800A13E0ED04}" name="Patched within 30 days" dataDxfId="31" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{0A8B9F98-98C2-495E-AF23-A1EF75C4D73F}" name="Patched within 31 - 60 days" dataDxfId="30" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{23AAD462-CA67-4BD6-A4CF-005557D82A00}" name="Patched within 61 - 90 days" dataDxfId="29" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{A938EE0B-133D-4BE1-83C3-5A63DC26083D}" name="Total percentage of fleet" dataDxfId="28" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{7B4483E1-328B-47C3-ABC1-AA288784EA04}" name="Evidence of risk managements and patching timelines" dataDxfId="27" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{CE1F0213-0C56-45FE-BE2D-924D48A98DEC}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="26" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{215EEE9E-33AE-4214-889D-B23E62268325}" name="Comments" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{75361598-A603-43E4-96DF-0FC9B1E9D02D}" name="Column1" dataDxfId="24" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{9A0BCC48-168C-41CF-9509-CC4AFB1DAAD0}" name="PR3- E8.3" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{AECD3743-74A3-49C2-BCB7-458EA311C5D7}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F61B2ADE-5195-4559-9A36-F78D933981C2}" name="Further Info" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{0A72EA67-00BE-409F-85CF-800A13E0ED04}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{0A8B9F98-98C2-495E-AF23-A1EF75C4D73F}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{23AAD462-CA67-4BD6-A4CF-005557D82A00}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{A938EE0B-133D-4BE1-83C3-5A63DC26083D}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{7B4483E1-328B-47C3-ABC1-AA288784EA04}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{CE1F0213-0C56-45FE-BE2D-924D48A98DEC}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{215EEE9E-33AE-4214-889D-B23E62268325}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{75361598-A603-43E4-96DF-0FC9B1E9D02D}" name="Column1" dataDxfId="46" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0359F30-7E05-4DE9-816D-C6DE92A25FB8}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0359F30-7E05-4DE9-816D-C6DE92A25FB8}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A6EBEA67-3FC3-4D11-BF7C-F53687E58B85}" name="PR3-E8.4" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{81940C5A-ED34-4C4C-923C-4D155A033CC6}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{E039BF55-47FE-4163-8810-B3AC42B5A73E}" name="Additional" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A1F59B11-D37D-41C5-8DD5-22B92A400759}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="17" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{15F894DD-BE1D-4020-8D1D-837E67F700BC}" name="Description of processes" dataDxfId="16" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{D25BD7C9-90A1-4736-854C-30D850B9EB2D}" name="How often are administrative  privileges reviewed?" dataDxfId="15" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{5E4431FA-2634-425D-8183-6C79EC2097BD}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="14" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{F8149A54-E4D5-4584-AEA1-009EFE00AC2E}" name="Comments if any" dataDxfId="13" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{564663A5-7EB2-4C0C-B524-284F09201A79}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="12" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="10" xr3:uid="{C8CED917-D375-4C00-A6F5-3FDBF075440B}" name="Comments" dataDxfId="11" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{2F170816-AE5A-47D0-B62F-29249D7995BF}" name="Column1" dataDxfId="10" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{A6EBEA67-3FC3-4D11-BF7C-F53687E58B85}" name="PR3-E8.4" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{81940C5A-ED34-4C4C-923C-4D155A033CC6}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{E039BF55-47FE-4163-8810-B3AC42B5A73E}" name="Additional" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A1F59B11-D37D-41C5-8DD5-22B92A400759}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="39" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{15F894DD-BE1D-4020-8D1D-837E67F700BC}" name="Description of processes" dataDxfId="38" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{D25BD7C9-90A1-4736-854C-30D850B9EB2D}" name="How often are administrative  privileges reviewed?" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{5E4431FA-2634-425D-8183-6C79EC2097BD}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="36" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{F8149A54-E4D5-4584-AEA1-009EFE00AC2E}" name="Comments if any" dataDxfId="35" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{564663A5-7EB2-4C0C-B524-284F09201A79}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="34" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="10" xr3:uid="{C8CED917-D375-4C00-A6F5-3FDBF075440B}" name="Comments" dataDxfId="33" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{2F170816-AE5A-47D0-B62F-29249D7995BF}" name="Column1" dataDxfId="32" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6783,43 +6783,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="98"/>
@@ -6833,124 +6833,124 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="159"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="169" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="170"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="161"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="169"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="167" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="101"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6979,14 +6979,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7045,14 +7045,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7116,14 +7116,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7188,14 +7188,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7301,14 +7301,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="180" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7412,134 +7412,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="181" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="182" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="188"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="181" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="182" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="181" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="189" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7553,43 +7553,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="181" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="181"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="189" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7603,134 +7603,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="181" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="194" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="181"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="195" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="184" t="s">
+      <c r="A19" s="197" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="184"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="184"/>
-      <c r="H19" s="184"/>
-      <c r="I19" s="184"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="197"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="198" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="185"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="181" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="199"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="199"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="181" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
+      <c r="B24" s="181"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7749,6 +7749,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -7761,18 +7773,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8631,8 +8631,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,11 +8972,11 @@
       <c r="G17" s="60"/>
       <c r="H17" s="61"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
     </row>
     <row r="18" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="150" t="s">
         <v>287</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -9011,7 +9011,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="195" t="s">
+      <c r="A19" s="151" t="s">
         <v>292</v>
       </c>
       <c r="B19" s="55" t="s">
@@ -9038,7 +9038,7 @@
       <c r="K19" s="149"/>
     </row>
     <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="151" t="s">
         <v>295</v>
       </c>
       <c r="B20" s="55" t="s">
@@ -9065,7 +9065,7 @@
       <c r="K20" s="149"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="152" t="s">
         <v>298</v>
       </c>
       <c r="B21" s="55" t="s">
@@ -9095,7 +9095,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="150" t="s">
         <v>300</v>
       </c>
       <c r="B23" s="52" t="s">
@@ -9130,7 +9130,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="196" t="s">
+      <c r="A24" s="152" t="s">
         <v>309</v>
       </c>
       <c r="B24" s="55" t="s">
@@ -9142,8 +9142,8 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="197"/>
-      <c r="H24" s="197"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
       <c r="I24" s="56">
         <v>0</v>
       </c>
@@ -9179,10 +9179,10 @@
         <v>307</v>
       </c>
       <c r="I26" s="53"/>
-      <c r="J26" s="198" t="s">
+      <c r="J26" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="198"/>
+      <c r="K26" s="179"/>
     </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
@@ -9197,7 +9197,7 @@
       <c r="D27" s="56">
         <v>0</v>
       </c>
-      <c r="E27" s="199" t="s">
+      <c r="E27" s="154" t="s">
         <v>321</v>
       </c>
       <c r="F27" s="57"/>
@@ -9206,8 +9206,8 @@
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="53"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
     </row>
     <row r="28" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9222,7 +9222,7 @@
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I25:I27 I17" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I17 I25" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9618,12 +9618,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9870,37 +9889,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9925,18 +9934,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9688AEB-7052-4EE2-B88B-09D9E9E592A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507D75B-3425-4538-9F1D-8420BF37B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2512,6 +2512,36 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2542,9 +2572,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2554,33 +2581,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2590,12 +2590,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2613,39 +2646,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -6783,43 +6783,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="98"/>
@@ -6833,124 +6833,124 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="177"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="169" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="175"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="168"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="171"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="174"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="176" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="101"/>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -7412,134 +7412,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="186" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="192" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="192" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="192" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="192" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="182"/>
-      <c r="I5" s="182"/>
+      <c r="B5" s="192"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="183" t="s">
+      <c r="A6" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="196"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="188"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="199"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="186" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="192" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="184" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7553,43 +7553,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="183" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7603,134 +7603,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="181"/>
-      <c r="C16" s="181"/>
-      <c r="D16" s="181"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="181"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="187" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="187"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="189"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="197" t="s">
+      <c r="A19" s="190" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="197"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="197"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="197"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="198"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="192" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="182"/>
-      <c r="F21" s="182"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="181" t="s">
+      <c r="A22" s="186" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="186"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="193" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="199"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="186" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="181"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7749,6 +7749,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -7761,18 +7773,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8631,13 +8631,13 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="50" customWidth="1"/>
     <col min="2" max="2" width="40.21875" style="50" customWidth="1"/>
     <col min="3" max="3" width="32" style="50" customWidth="1"/>
     <col min="4" max="4" width="53.77734375" style="50" customWidth="1"/>
@@ -9221,12 +9221,6 @@
     <mergeCell ref="J27:K27"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Error input" error="Please use 'Comments' section" sqref="G10:H10 I17 I25" xr:uid="{ED1417E7-B255-EB4C-8CB8-04E9DB385FF4}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{E9BFF323-92EC-5F42-B687-42E1F8E2D26F}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{9A4FF1FE-2AE2-1742-BBFA-000848F43567}"/>
@@ -9245,18 +9239,6 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" error="Fully / Partial / Nil" xr:uid="{09A02791-0234-47E3-AEC4-B06EEEF48195}">
-          <x14:formula1>
-            <xm:f>data!$A$2:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9618,31 +9600,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9889,27 +9852,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9934,9 +9907,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507D75B-3425-4538-9F1D-8420BF37B52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0AE5E2-DD35-41A1-8DBD-D65A9B14D43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="310">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1332,63 +1332,7 @@
 </t>
   </si>
   <si>
-    <t>PR3- E8.3</t>
-  </si>
-  <si>
-    <t>Patch operating systems
-Patch operating system vulnerabilities</t>
-  </si>
-  <si>
-    <t>Further Info</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mitigating controls where patching is not completed 90&lt; days 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Please refer to the guideline linked above</t>
-    </r>
-  </si>
-  <si>
     <t>Column1</t>
-  </si>
-  <si>
-    <t>PR3- E8.3.1</t>
-  </si>
-  <si>
-    <t>Patching as applied to server operating systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of servers for which operating system (and basic platform component):
-a) patches have not been applied in the last 3 months
-b) patches have been applied to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3-E8.3.2</t>
-  </si>
-  <si>
-    <t>Patching as applied to workstations operating systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For workstations used to access agency information in this group estimate the approximate percentage of workstations for which operating system:
-a) patches have not been applied in the last 3 months
-b) patches have been applied to became fully patched in the last 3 months
-</t>
-  </si>
-  <si>
-    <t>PR3-E8.3.3</t>
-  </si>
-  <si>
-    <t>Patching as applied to internet exposed servers (tracking systems, email, webmail, SharePoint, transaction systems)</t>
   </si>
   <si>
     <t>PR3-E8.4</t>
@@ -2097,7 +2041,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2500,9 +2444,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2512,6 +2453,48 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2530,9 +2513,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2542,45 +2522,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2590,6 +2531,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2599,15 +2570,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2624,28 +2586,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2662,7 +2609,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="115">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3836,348 +3783,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6278,33 +5883,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="114">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="127" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="113" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="24" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="23" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="22" dataCellStyle="20% - Accent2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
@@ -6320,7 +5909,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
@@ -6335,127 +5924,108 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="122" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="120" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="119" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="118" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="117" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="116" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="114" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="113" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="108" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="106" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="105" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="104" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="103" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="102" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="101" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="100" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="99" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" tableBorderDxfId="96">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="109" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="108" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="107" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="106" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="105" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="104" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="103" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="102" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="101" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="95" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="94" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="93" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="92" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="91" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="90" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="89" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="88" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="87" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="100" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="86" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="98" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="97" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="96" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="95" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="94" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="93" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="85" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="84" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="83" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="82" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="81" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="80" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="79" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="70"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="79" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="78" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="77" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="76" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="75" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="74" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="65" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="64" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="63" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="62" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="61" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="60" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="67" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="66" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="65" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="64" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="63" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="62" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="61" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="60" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="46" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1B802240-02C4-4A7B-9224-640658E1E856}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{9A0BCC48-168C-41CF-9509-CC4AFB1DAAD0}" name="PR3- E8.3" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{AECD3743-74A3-49C2-BCB7-458EA311C5D7}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{F61B2ADE-5195-4559-9A36-F78D933981C2}" name="Further Info" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{0A72EA67-00BE-409F-85CF-800A13E0ED04}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{0A8B9F98-98C2-495E-AF23-A1EF75C4D73F}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{23AAD462-CA67-4BD6-A4CF-005557D82A00}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{A938EE0B-133D-4BE1-83C3-5A63DC26083D}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{7B4483E1-328B-47C3-ABC1-AA288784EA04}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{CE1F0213-0C56-45FE-BE2D-924D48A98DEC}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{215EEE9E-33AE-4214-889D-B23E62268325}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{75361598-A603-43E4-96DF-0FC9B1E9D02D}" name="Column1" dataDxfId="46" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0359F30-7E05-4DE9-816D-C6DE92A25FB8}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A6EBEA67-3FC3-4D11-BF7C-F53687E58B85}" name="PR3-E8.4" dataDxfId="42" dataCellStyle="Normal 2"/>
@@ -6469,6 +6039,22 @@
     <tableColumn id="9" xr3:uid="{564663A5-7EB2-4C0C-B524-284F09201A79}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="34" dataCellStyle="20% - Accent2"/>
     <tableColumn id="10" xr3:uid="{C8CED917-D375-4C00-A6F5-3FDBF075440B}" name="Comments" dataDxfId="33" dataCellStyle="Note 2"/>
     <tableColumn id="11" xr3:uid="{2F170816-AE5A-47D0-B62F-29249D7995BF}" name="Column1" dataDxfId="32" dataCellStyle="Note 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="24" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="23" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="22" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6783,43 +6369,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="98"/>
@@ -6833,124 +6419,124 @@
       <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="168" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="175"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="171"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="174"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="177"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="101"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6979,14 +6565,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7045,14 +6631,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7116,14 +6702,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7188,14 +6774,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7301,14 +6887,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7412,134 +6998,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="180" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="181" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="192"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="181" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="192"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="181" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194" t="s">
+      <c r="A6" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="196"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="199"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="187"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="180" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="181" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
+      <c r="B8" s="181"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="184" t="s">
+      <c r="A10" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7553,43 +7139,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="192" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="183"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="183"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="184" t="s">
+      <c r="A14" s="188" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7603,134 +7189,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="180" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="193" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="196" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="190"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="191" t="s">
+      <c r="A20" s="197" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="181" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="181"/>
+      <c r="I21" s="181"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="186" t="s">
+      <c r="A22" s="180" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="186"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="198" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="193"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="198"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="186" t="s">
+      <c r="A24" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7749,6 +7335,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -7761,18 +7359,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8631,8 +8217,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8972,120 +8558,56 @@
       <c r="G17" s="60"/>
       <c r="H17" s="61"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-    </row>
-    <row r="18" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
-        <v>287</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="148" t="s">
-        <v>278</v>
-      </c>
-      <c r="I18" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="J18" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="148" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="151" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="D19" s="56">
-        <v>0</v>
-      </c>
-      <c r="E19" s="56">
-        <v>0</v>
-      </c>
-      <c r="F19" s="56">
-        <v>0</v>
-      </c>
-      <c r="G19" s="56">
-        <v>0</v>
-      </c>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="200"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="199"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="149"/>
       <c r="K19" s="149"/>
     </row>
-    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="151" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="56">
-        <v>0</v>
-      </c>
-      <c r="E20" s="56">
-        <v>0</v>
-      </c>
-      <c r="F20" s="56">
-        <v>0</v>
-      </c>
-      <c r="G20" s="56">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="199"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="149"/>
       <c r="K20" s="149"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="152" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="56">
-        <v>0</v>
-      </c>
-      <c r="E21" s="56">
-        <v>0</v>
-      </c>
-      <c r="F21" s="56">
-        <v>0</v>
-      </c>
-      <c r="G21" s="56">
-        <v>0</v>
-      </c>
+      <c r="A21" s="199"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="57"/>
       <c r="I21" s="57"/>
       <c r="J21" s="149"/>
@@ -9096,54 +8618,54 @@
     </row>
     <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="150" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F23" s="148" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="J23" s="148" t="s">
         <v>146</v>
       </c>
       <c r="K23" s="148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="152" t="s">
-        <v>309</v>
+      <c r="A24" s="151" t="s">
+        <v>297</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
       <c r="I24" s="56">
         <v>0</v>
       </c>
@@ -9155,50 +8677,50 @@
     </row>
     <row r="26" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C26" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>314</v>
-      </c>
       <c r="E26" s="52" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="I26" s="53"/>
-      <c r="J26" s="179" t="s">
+      <c r="J26" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="179"/>
+      <c r="K26" s="178"/>
     </row>
     <row r="27" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D27" s="56">
         <v>0</v>
       </c>
-      <c r="E27" s="154" t="s">
-        <v>321</v>
+      <c r="E27" s="153" t="s">
+        <v>309</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="56">
@@ -9206,8 +8728,8 @@
       </c>
       <c r="H27" s="56"/>
       <c r="I27" s="53"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
     </row>
     <row r="28" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9231,13 +8753,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
-  <tableParts count="6">
+  <tableParts count="5">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9600,12 +9121,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9852,37 +9392,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9907,18 +9437,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0AE5E2-DD35-41A1-8DBD-D65A9B14D43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F1C7C-D71D-4563-B8C3-9DCD99AE9AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -67,51 +67,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>dan</author>
-  </authors>
-  <commentList>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{4D4D3E7C-E45C-4BDD-818B-80A96D8FC81D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="287">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1331,129 +1288,6 @@
 b) patches have been applied across server applications to became fully patched in the last 3 months
 </t>
   </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>PR3-E8.4</t>
-  </si>
-  <si>
-    <t>Minimise users with administrative privileges 
-The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise</t>
-  </si>
-  <si>
-    <t>Additional</t>
-  </si>
-  <si>
-    <t>Processes for onboarding and offboarding staff exist (Yes/No)</t>
-  </si>
-  <si>
-    <t>Description of processes</t>
-  </si>
-  <si>
-    <t>How often are administrative  privileges reviewed?</t>
-  </si>
-  <si>
-    <t>An auditable register of admin groups is kept (Yes/No)</t>
-  </si>
-  <si>
-    <t>Comments if any</t>
-  </si>
-  <si>
-    <r>
-      <t>Percentage of staff with elevated privileges who</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> do not</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have a separate standard user account.</t>
-    </r>
-  </si>
-  <si>
-    <t>PR3-E8.4.1</t>
-  </si>
-  <si>
-    <t>Processes, policies, and procedures are designed and enforced to ensure that users with administrative privileges are tracked and managed effectively</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A description of the current control sets as they relate to the prompts in the above row </t>
-  </si>
-  <si>
-    <t>PR3-E8.5</t>
-  </si>
-  <si>
-    <t>Disable untrusted Microsoft Office macros
-Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Percentage of fleet with MS Office macros disabled. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Compute devices where MSOffice installed are considered 'disabled')</t>
-    </r>
-  </si>
-  <si>
-    <t>Risk mitigation for macro enabled workstations (evidence may be required)</t>
-  </si>
-  <si>
-    <t>Additional Comments (optional)</t>
-  </si>
-  <si>
-    <t>Total percentage of protected fleet   (Cybersecurity Unit to review and accept)</t>
-  </si>
-  <si>
-    <t>PR3-E8.5.1</t>
-  </si>
-  <si>
-    <t>Are untrusted Microsoft Office macros disabled?</t>
-  </si>
-  <si>
-    <r>
-      <t>Has the default setting in Microsoft Office been set to '</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Disable all macros with notification'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">?  </t>
-    </r>
-  </si>
-  <si>
-    <t>Example:
-Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
-  </si>
 </sst>
 </file>
 
@@ -1463,7 +1297,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,26 +1537,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2041,7 +1855,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2195,18 +2009,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2438,20 +2240,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2483,9 +2300,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2495,48 +2309,48 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,45 +2368,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2609,7 +2384,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="115">
+  <dxfs count="91">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3188,601 +2963,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5883,17 +5063,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="90">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="113" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="89" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="84" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="82" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="81" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="79" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="77" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="76" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="75" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+  <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="71" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="67" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="65" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="64" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="63" dataCellStyle="Note 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="61" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="60" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="59" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="58" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="55" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 2">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="38" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="36" dataCellStyle="20% - Accent2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="29" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="28" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="27" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="24" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="23" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="22" dataCellStyle="Note 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
@@ -5909,7 +5191,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
@@ -5918,143 +5200,6 @@
     <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
     <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
     <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
-  <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="108" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="106" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="105" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="104" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="103" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="102" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="101" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="100" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="99" dataCellStyle="Normal 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" tableBorderDxfId="96">
-  <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="95" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="94" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="93" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="92" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="91" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="90" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="89" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="88" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="87" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="86" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="85" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="84" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="83" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="82" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="81" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="80" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="79" dataCellStyle="Hyperlink"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="69"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67" tableBorderDxfId="66" headerRowCellStyle="Normal 2">
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="65" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="64" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="63" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="62" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="61" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="60" dataCellStyle="20% - Accent2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="46" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B0359F30-7E05-4DE9-816D-C6DE92A25FB8}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normal 2">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A6EBEA67-3FC3-4D11-BF7C-F53687E58B85}" name="PR3-E8.4" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{81940C5A-ED34-4C4C-923C-4D155A033CC6}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{E039BF55-47FE-4163-8810-B3AC42B5A73E}" name="Additional" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A1F59B11-D37D-41C5-8DD5-22B92A400759}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="39" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{15F894DD-BE1D-4020-8D1D-837E67F700BC}" name="Description of processes" dataDxfId="38" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{D25BD7C9-90A1-4736-854C-30D850B9EB2D}" name="How often are administrative  privileges reviewed?" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{5E4431FA-2634-425D-8183-6C79EC2097BD}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="36" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{F8149A54-E4D5-4584-AEA1-009EFE00AC2E}" name="Comments if any" dataDxfId="35" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{564663A5-7EB2-4C0C-B524-284F09201A79}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="34" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="10" xr3:uid="{C8CED917-D375-4C00-A6F5-3FDBF075440B}" name="Comments" dataDxfId="33" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{2F170816-AE5A-47D0-B62F-29249D7995BF}" name="Column1" dataDxfId="32" dataCellStyle="Note 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FFD1E30F-0A40-421C-AE10-23671D50C533}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F4A365E7-1BD0-4211-BE16-C6B776962A71}" name="PR3-E8.5" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{475B2598-55E5-4A39-A4F8-0DC7219D4ED0}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{65589BB9-3F45-4EA4-83E7-7CB5B2AA09EC}" name="Additional" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{C35E7BF6-19C4-4007-A988-F7CB611C2DE4}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{7850E953-38EA-4CC3-A6BB-CA15FD62215C}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{CD91D0FD-0691-4A09-908C-3F48F79C7F35}" name="Additional Comments (optional)" dataDxfId="24" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{3C6845D5-167F-409E-A4B8-D4B780D1E86A}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="23" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{5D461F7C-65D6-412F-A7B8-C78BC2598BA5}" name="Comments if any" dataDxfId="22" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6369,132 +5514,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="152" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="176"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="145" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="164"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
       <c r="I7" s="165"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="161"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="163"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="164"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="166" t="s">
@@ -6510,33 +5655,33 @@
       <c r="I11" s="167"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="154" t="s">
+      <c r="B12" s="97"/>
+      <c r="C12" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6565,14 +5710,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6631,14 +5776,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6702,14 +5847,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6774,14 +5919,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6849,14 +5994,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -6887,14 +6032,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6998,69 +6143,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="180" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="182" t="s">
@@ -7076,56 +6221,56 @@
       <c r="I6" s="187"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="174" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="181" t="s">
+      <c r="A8" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="181"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="174" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="172" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7139,43 +6284,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="174" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="180"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="171" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="172" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7189,134 +6334,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="180" t="s">
+      <c r="A16" s="174" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="193" t="s">
+      <c r="A17" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="195"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="197" t="s">
+      <c r="A20" s="179" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="197"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="181" t="s">
+      <c r="A21" s="180" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="181"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="180" t="s">
+      <c r="A22" s="174" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="181" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="198"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="174" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="190" t="s">
+      <c r="A25" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="191"/>
-      <c r="G25" s="191"/>
-      <c r="H25" s="191"/>
-      <c r="I25" s="191"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7335,6 +6480,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -7347,18 +6504,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -7394,14 +6539,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="112" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="113" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -7410,105 +6555,105 @@
       <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="114" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="115"/>
+      <c r="C4" s="111"/>
     </row>
     <row r="5" spans="1:3" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="115" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="122" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="113" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="123" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="116" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="124"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="117" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="26">
         <v>468463789</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="111"/>
     </row>
     <row r="9" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="128"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="124"/>
     </row>
     <row r="10" spans="1:3" ht="78.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="21">
         <v>0</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="120" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="119" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="29">
         <v>0</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="125" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="120" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="130"/>
+      <c r="C12" s="126"/>
     </row>
     <row r="13" spans="1:3" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="125"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="131"/>
+      <c r="C13" s="127"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="130"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7540,44 +6685,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.21875" style="73" customWidth="1"/>
-    <col min="2" max="6" width="28.77734375" style="73" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="73" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="73" customWidth="1"/>
-    <col min="9" max="9" width="55.21875" style="73" customWidth="1"/>
-    <col min="10" max="10" width="0" style="73" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="73"/>
+    <col min="1" max="1" width="37.21875" style="69" customWidth="1"/>
+    <col min="2" max="6" width="28.77734375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="69" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="69" customWidth="1"/>
+    <col min="9" max="9" width="55.21875" style="69" customWidth="1"/>
+    <col min="10" max="10" width="0" style="69" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="64" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7606,10 +6751,10 @@
       <c r="H2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="92" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7638,10 +6783,10 @@
       <c r="H3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="92" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7670,10 +6815,10 @@
       <c r="H4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="92" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7700,88 +6845,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="73"/>
-    <col min="2" max="2" width="21.21875" style="73" customWidth="1"/>
-    <col min="3" max="3" width="33" style="73" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="73" customWidth="1"/>
-    <col min="5" max="6" width="51.77734375" style="73" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="73" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" style="73" customWidth="1"/>
-    <col min="9" max="9" width="17" style="73" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="73"/>
+    <col min="1" max="1" width="8.77734375" style="69"/>
+    <col min="2" max="2" width="21.21875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="33" style="69" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="69" customWidth="1"/>
+    <col min="5" max="6" width="51.77734375" style="69" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="69" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" style="69" customWidth="1"/>
+    <col min="9" max="9" width="17" style="69" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="94" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:9" s="90" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="94" customFormat="1" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:9" s="90" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="105" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="104"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9" ht="266.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="131" t="s">
         <v>246</v>
       </c>
       <c r="I3" s="58" t="s">
@@ -7789,24 +6934,24 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="76" t="s">
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="72" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="58" t="s">
@@ -7814,22 +6959,22 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="345" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="135" t="s">
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="131" t="s">
         <v>246</v>
       </c>
       <c r="I5" s="58" t="s">
@@ -7837,22 +6982,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="195" x14ac:dyDescent="0.3">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="135" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="131" t="s">
         <v>246</v>
       </c>
       <c r="I6" s="58" t="s">
@@ -7860,22 +7005,22 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="82" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="78" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="58" t="s">
@@ -7883,22 +7028,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="137" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="133" t="s">
         <v>248</v>
       </c>
       <c r="I8" s="58" t="s">
@@ -7906,22 +7051,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="137" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="133" t="s">
         <v>248</v>
       </c>
       <c r="I9" s="58" t="s">
@@ -7929,85 +7074,85 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="83"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="58" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="83"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="79"/>
       <c r="I11" s="58" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="83"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="136" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="132" t="s">
         <v>247</v>
       </c>
       <c r="I13" s="58" t="s">
@@ -8015,22 +7160,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="136" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="132" t="s">
         <v>247</v>
       </c>
       <c r="I14" s="58" t="s">
@@ -8038,43 +7183,43 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.3">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="83"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="79"/>
       <c r="I15" s="58" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.3">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="87"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="58" t="s">
         <v>117</v>
       </c>
@@ -8116,52 +7261,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="67"/>
-    <col min="2" max="3" width="53.77734375" style="67" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="67" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="28" style="67" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" style="67" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="67"/>
+    <col min="1" max="1" width="8.77734375" style="63"/>
+    <col min="2" max="3" width="53.77734375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="28" style="63" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="63" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="105" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="101" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8169,33 +7314,33 @@
       <c r="A3" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="110" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="72" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="68" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8211,14 +7356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8264,40 +7409,40 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="48" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="105"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="271.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="140"/>
       <c r="E3" s="48"/>
       <c r="F3" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -8309,7 +7454,7 @@
       <c r="C4" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="62" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="48" t="s">
@@ -8332,7 +7477,7 @@
       <c r="C5" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="62" t="s">
         <v>205</v>
       </c>
       <c r="H5" s="48" t="s">
@@ -8349,7 +7494,7 @@
       <c r="C6" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="62" t="s">
         <v>203</v>
       </c>
       <c r="H6" s="48" t="s">
@@ -8357,20 +7502,20 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="139" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="48" t="s">
@@ -8383,8 +7528,8 @@
       <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="48"/>
       <c r="D9" s="48"/>
       <c r="E9" s="12"/>
@@ -8481,16 +7626,16 @@
       <c r="G14" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="144" t="s">
         <v>278</v>
       </c>
       <c r="I14" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="J14" s="148" t="s">
+      <c r="J14" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="148" t="s">
+      <c r="K14" s="144" t="s">
         <v>280</v>
       </c>
     </row>
@@ -8518,8 +7663,8 @@
       </c>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
@@ -8545,203 +7690,12 @@
       </c>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-    </row>
-    <row r="17" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="200"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="199"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="199"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-    </row>
-    <row r="22" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="1:11" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23" s="148" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="148" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="151" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="56">
-        <v>0</v>
-      </c>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-    </row>
-    <row r="25" spans="1:11" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="1:11" ht="91.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="178" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="178"/>
-    </row>
-    <row r="27" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="D27" s="56">
-        <v>0</v>
-      </c>
-      <c r="E27" s="153" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="56">
-        <v>0</v>
-      </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-    </row>
-    <row r="28" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:11" ht="98.55" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+    </row>
+    <row r="18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-  </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{E9BFF323-92EC-5F42-B687-42E1F8E2D26F}"/>
@@ -8752,13 +7706,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-  <tableParts count="5">
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8811,19 +7762,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="106" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="102" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8844,16 +7795,16 @@
         <v>150</v>
       </c>
       <c r="F3" s="44"/>
-      <c r="G3" s="107"/>
+      <c r="G3" s="103"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="113"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8953,10 +7904,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="137" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="138" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8984,7 +7935,7 @@
       <c r="B6" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="136" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9053,13 +8004,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="135" t="s">
         <v>262</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="2:10" ht="131.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="134" t="s">
         <v>257</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -9121,31 +8072,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9392,27 +8324,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9437,9 +8379,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F1C7C-D71D-4563-B8C3-9DCD99AE9AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226EBDC-E417-4687-9DBD-DB8E586FED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="300">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1288,6 +1288,65 @@
 b) patches have been applied across server applications to became fully patched in the last 3 months
 </t>
   </si>
+  <si>
+    <t>PR3- E8.3</t>
+  </si>
+  <si>
+    <t>Patch operating systems
+Patch operating system vulnerabilities</t>
+  </si>
+  <si>
+    <t>Further Info</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mitigating controls where patching is not completed 90&lt; days 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Please refer to the guideline linked above</t>
+    </r>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>PR3- E8.3.1</t>
+  </si>
+  <si>
+    <t>Patching as applied to server operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For servers used in this group estimate the approximate percentage of servers for which operating system (and basic platform component):
+a) patches have not been applied in the last 3 months
+b) patches have been applied to became fully patched in the last 3 months
+</t>
+  </si>
+  <si>
+    <t>PR3-E8.3.2</t>
+  </si>
+  <si>
+    <t>Patching as applied to workstations operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For workstations used to access agency information in this group estimate the approximate percentage of workstations for which operating system:
+a) patches have not been applied in the last 3 months
+b) patches have been applied to became fully patched in the last 3 months
+</t>
+  </si>
+  <si>
+    <t>PR3-E8.3.3</t>
+  </si>
+  <si>
+    <t>Patching as applied to internet exposed servers (tracking systems, email, webmail, SharePoint, transaction systems)</t>
+  </si>
 </sst>
 </file>
 
@@ -1297,7 +1356,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,6 +1596,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1855,7 +1921,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2240,6 +2306,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2258,9 +2366,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2270,48 +2375,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2321,15 +2417,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2346,28 +2433,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2384,7 +2459,349 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="105">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -5063,143 +5480,162 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="104">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="89" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="88"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="87"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="103" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="15" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="14" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="84" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="82" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="81" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="80" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="79" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="78" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="77" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="76" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="75" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="98" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="96" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="95" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="94" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="93" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="92" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="91" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="90" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="89" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="71" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="67" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="66" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="65" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="64" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="63" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="85" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="84" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="83" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="82" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="81" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="80" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="79" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="78" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="77" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="62" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="76" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="61" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="60" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="59" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="58" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="57" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="55" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="75" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="74" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="73" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="72" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="71" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="69" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="38" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="36" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="51" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="50" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="29" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="28" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="27" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="24" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="23" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="22" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="44" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="43" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="42" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="41" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="40" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="39" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="38" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="36" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="12" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="11" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="7" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="6" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="5" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="4" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="3" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="2" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="0" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5514,43 +5950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
@@ -5564,124 +6000,124 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="154"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="167"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="149" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="165"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
-      <c r="D8" s="157"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="161"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="151"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="164"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="154"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6143,134 +6579,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="170" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="173"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="187"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="176"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="170" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6284,43 +6720,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="181" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -6334,134 +6770,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
+      <c r="B16" s="169"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="183" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="177"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="186" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="180" t="s">
+      <c r="A21" s="170" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="169" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="187" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="181"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="187"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="169" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -6480,6 +6916,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -6492,18 +6940,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -7360,10 +7796,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,8 +8129,122 @@
       <c r="J16" s="143"/>
       <c r="K16" s="143"/>
     </row>
-    <row r="18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="109.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="188" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="144" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A19" s="189" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="56">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
+      </c>
+      <c r="G19" s="56">
+        <v>0</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+    </row>
+    <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="189" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="56">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>0</v>
+      </c>
+      <c r="F20" s="56">
+        <v>0</v>
+      </c>
+      <c r="G20" s="56">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+    </row>
+    <row r="21" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="190" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>0</v>
+      </c>
+      <c r="F21" s="56">
+        <v>0</v>
+      </c>
+      <c r="G21" s="56">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -7706,10 +8256,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8072,12 +8623,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8324,37 +8894,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8379,18 +8939,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226EBDC-E417-4687-9DBD-DB8E586FED1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4428F8-B70D-49F5-A1B7-EF5C838FB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="312">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1346,6 +1346,64 @@
   </si>
   <si>
     <t>Patching as applied to internet exposed servers (tracking systems, email, webmail, SharePoint, transaction systems)</t>
+  </si>
+  <si>
+    <t>PR3-E8.4</t>
+  </si>
+  <si>
+    <t>Minimise users with administrative privileges 
+The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise</t>
+  </si>
+  <si>
+    <t>Additional</t>
+  </si>
+  <si>
+    <t>Processes for onboarding and offboarding staff exist (Yes/No)</t>
+  </si>
+  <si>
+    <t>Description of processes</t>
+  </si>
+  <si>
+    <t>How often are administrative  privileges reviewed?</t>
+  </si>
+  <si>
+    <t>An auditable register of admin groups is kept (Yes/No)</t>
+  </si>
+  <si>
+    <t>Comments if any</t>
+  </si>
+  <si>
+    <r>
+      <t>Percentage of staff with elevated privileges who</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> do not</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> have a separate standard user account.</t>
+    </r>
+  </si>
+  <si>
+    <t>PR3-E8.4.1</t>
+  </si>
+  <si>
+    <t>Processes, policies, and procedures are designed and enforced to ensure that users with administrative privileges are tracked and managed effectively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the current control sets as they relate to the prompts in the above row </t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1979,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2306,6 +2364,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2336,9 +2433,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2348,42 +2442,48 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2402,47 +2502,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2459,7 +2520,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="119">
     <dxf>
       <font>
         <b val="0"/>
@@ -2527,14 +2588,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2560,7 +2621,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2579,14 +2640,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2605,14 +2666,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2631,14 +2692,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2657,14 +2718,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2746,28 +2807,26 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -2800,7 +2859,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3380,6 +3439,348 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5480,17 +5881,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="118">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="103" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="117" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
@@ -5505,137 +5922,140 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="98" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="95" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="93" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="92" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="91" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="90" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="89" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="110" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="109" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="108" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="107" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="106" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="105" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="104" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="103" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="85" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="84" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="83" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="82" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="81" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="80" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="79" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="78" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="77" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="98" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="97" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="96" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="95" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="94" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="93" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="92" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="91" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="76" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="90" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="75" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="74" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="73" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="72" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="71" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="69" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="89" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="88" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="87" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="86" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="85" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="84" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="83" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="53" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="51" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="50" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="67" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="65" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="64" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="43" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="42" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="41" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="40" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="39" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="38" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="36" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="60" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="59" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="58" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="57" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="56" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="55" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="54" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="53" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="52" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="51" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="50" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="7" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="6" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="5" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="4" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="3" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="2" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="0" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="44" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="43" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="42" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="41" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="40" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="39" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="38" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="36" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D9310BEB-25DB-42FC-973F-DAF1FDEBF04B}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{561C8C41-77AA-4224-8A5A-95738E62CFAE}" name="PR3-E8.4" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A33609DB-7B94-4B7D-BEC6-05C7EF2EF089}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{97B0ED61-F455-4BFC-99FF-B925CD183695}" name="Additional" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{E703D194-D5AA-44E0-8BFE-DF60FB4ED58A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="7" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{81C8FCE9-5158-4C2F-9461-DC79C2EF9953}" name="Description of processes" dataDxfId="6" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CB9F45C1-8760-4C55-A3A1-5301FE8B68E6}" name="How often are administrative  privileges reviewed?" dataDxfId="5" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{A27C7B53-FDD9-408C-95A1-6AB451807912}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="4" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{B36E1AA8-6648-4469-82F1-A2C2B03CA1C8}" name="Comments if any" dataDxfId="3" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{20237F15-9ABD-4B0B-9C5D-759B889ACEE5}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="2" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="10" xr3:uid="{E3C7E586-9993-43F9-9D8B-210743DC5AB8}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{A390F3A1-A785-4F9E-9BDC-D73316793793}" name="Column1" dataDxfId="0" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5950,43 +6370,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
@@ -6000,124 +6420,124 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="148" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="162" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="168"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="148"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="151"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="154"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="169" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6146,14 +6566,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6212,14 +6632,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6283,14 +6703,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6355,14 +6775,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6468,14 +6888,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="171" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6579,134 +6999,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="183" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="183" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="183" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="176"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="177" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="170" t="s">
+      <c r="A8" s="183" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="177" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="175" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6720,43 +7140,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="177" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -6770,134 +7190,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="177" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="182"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="183" t="s">
+      <c r="A18" s="179" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="184"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="184"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="185" t="s">
+      <c r="A19" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="185"/>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="186"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="183" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="177" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="184" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="177" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -6916,6 +7336,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -6928,18 +7360,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -7796,10 +8216,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8130,7 +8550,7 @@
       <c r="K16" s="143"/>
     </row>
     <row r="18" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="145" t="s">
         <v>287</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -8165,7 +8585,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="146" t="s">
         <v>292</v>
       </c>
       <c r="B19" s="55" t="s">
@@ -8192,7 +8612,7 @@
       <c r="K19" s="143"/>
     </row>
     <row r="20" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="189" t="s">
+      <c r="A20" s="146" t="s">
         <v>295</v>
       </c>
       <c r="B20" s="55" t="s">
@@ -8219,7 +8639,7 @@
       <c r="K20" s="143"/>
     </row>
     <row r="21" spans="1:11" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="147" t="s">
         <v>298</v>
       </c>
       <c r="B21" s="55" t="s">
@@ -8244,6 +8664,62 @@
       <c r="I21" s="57"/>
       <c r="J21" s="143"/>
       <c r="K21" s="143"/>
+    </row>
+    <row r="23" spans="1:11" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="145" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="F23" s="144" t="s">
+        <v>305</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="147" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="56">
+        <v>0</v>
+      </c>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -8256,11 +8732,12 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8623,34 +9100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E1479B33370014A94629D14E7E035B7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f8dbca6bf93f2782719d40778ede3cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xmlns:ns3="2ea85696-5d49-4719-8940-b51507ccf115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c46fde71e1d41f3ccbfaee5083d86d4b" ns2:_="" ns3:_="">
     <xsd:import namespace="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
@@ -8893,6 +9342,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8903,23 +9380,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8938,6 +9398,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FDB849-2D35-4D47-8357-5A24A389B99C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>

--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4428F8-B70D-49F5-A1B7-EF5C838FB177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87251-73D9-481B-9107-4ABE4A6B25F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -67,8 +67,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>dan</author>
+  </authors>
+  <commentList>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{D8171890-233E-47D5-A369-4146D859D214}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Example:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="322">
   <si>
     <t>Does my agency need to complete this form</t>
   </si>
@@ -1405,6 +1448,68 @@
   <si>
     <t xml:space="preserve">A description of the current control sets as they relate to the prompts in the above row </t>
   </si>
+  <si>
+    <t>PR3-E8.5</t>
+  </si>
+  <si>
+    <t>Disable untrusted Microsoft Office macros
+Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Percentage of fleet with MS Office macros disabled. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Compute devices where MSOffice installed are considered 'disabled')</t>
+    </r>
+  </si>
+  <si>
+    <t>Risk mitigation for macro enabled workstations (evidence may be required)</t>
+  </si>
+  <si>
+    <t>Additional Comments (optional)</t>
+  </si>
+  <si>
+    <t>Total percentage of protected fleet   (Cybersecurity Unit to review and accept)</t>
+  </si>
+  <si>
+    <t>PR3-E8.5.1</t>
+  </si>
+  <si>
+    <t>Are untrusted Microsoft Office macros disabled?</t>
+  </si>
+  <si>
+    <r>
+      <t>Has the default setting in Microsoft Office been set to '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Disable all macros with notification'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?  </t>
+    </r>
+  </si>
+  <si>
+    <t>Example:
+Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
+  </si>
 </sst>
 </file>
 
@@ -1414,7 +1519,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1660,6 +1765,19 @@
       <u/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1979,7 +2097,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2373,6 +2491,51 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2391,9 +2554,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2403,48 +2563,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,15 +2605,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2479,31 +2621,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2520,7 +2641,841 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2860,585 +3815,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -5881,181 +6257,197 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="128">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="117" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="115"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="127" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="126"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="26" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="25" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F92C2DEB-C556-4A64-93ED-CF5A6A82E6E6}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F857DDDA-6F48-477A-825B-B24E89CD1A59}" name="PR3-E8.5" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8A2A7231-A512-4414-A935-8055A0331687}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{63AC80DA-9135-46C4-90D8-8FDCDE66ED76}" name="Additional" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A133C0D7-5391-4891-86BE-EB252E8B9AA2}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="4" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{87B48093-7F67-4191-B6F1-1B3756AF13C3}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="3" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{E53D1F9C-D6EE-4676-9179-BAA14A6D5D4A}" name="Additional Comments (optional)" dataDxfId="2" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{B4735306-2D49-4E88-854C-396F43F1D839}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="1" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{E150B49A-65BA-47A9-B2F9-D6618DE15EEB}" name="Comments if any" dataDxfId="0" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="22" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="21" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="15" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="14" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="11" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="10" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="112" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="110" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="109" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="108" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="107" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="106" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="105" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="104" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="103" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="122" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="121"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="120" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="119" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="118" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="117" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="116" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="115" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="114" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="113" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101" tableBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="98" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="97" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="96" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="95" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="94" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="93" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="92" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="91" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="109" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="108" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="107" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="106" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="105" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="104" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="103" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="102" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="101" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="90" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="100" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="89" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="88" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="87" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="86" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="85" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="84" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="83" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="98" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="97" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="96" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="95" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="94" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="93" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="67" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="66" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="65" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="64" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="79" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="78" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="77" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="76" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="75" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="74" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="60" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="59" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="58" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="57" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="56" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="55" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="54" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="53" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="52" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="51" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="50" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="67" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="65" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="64" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="63" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="62" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="61" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="60" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="43" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="42" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="41" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="40" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="39" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="38" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="36" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="46" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D9310BEB-25DB-42FC-973F-DAF1FDEBF04B}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D9310BEB-25DB-42FC-973F-DAF1FDEBF04B}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{561C8C41-77AA-4224-8A5A-95738E62CFAE}" name="PR3-E8.4" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A33609DB-7B94-4B7D-BEC6-05C7EF2EF089}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{97B0ED61-F455-4BFC-99FF-B925CD183695}" name="Additional" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{E703D194-D5AA-44E0-8BFE-DF60FB4ED58A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="7" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{81C8FCE9-5158-4C2F-9461-DC79C2EF9953}" name="Description of processes" dataDxfId="6" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{CB9F45C1-8760-4C55-A3A1-5301FE8B68E6}" name="How often are administrative  privileges reviewed?" dataDxfId="5" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{A27C7B53-FDD9-408C-95A1-6AB451807912}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="4" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{B36E1AA8-6648-4469-82F1-A2C2B03CA1C8}" name="Comments if any" dataDxfId="3" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{20237F15-9ABD-4B0B-9C5D-759B889ACEE5}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="2" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="10" xr3:uid="{E3C7E586-9993-43F9-9D8B-210743DC5AB8}" name="Comments" dataDxfId="1" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{A390F3A1-A785-4F9E-9BDC-D73316793793}" name="Column1" dataDxfId="0" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{561C8C41-77AA-4224-8A5A-95738E62CFAE}" name="PR3-E8.4" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A33609DB-7B94-4B7D-BEC6-05C7EF2EF089}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{97B0ED61-F455-4BFC-99FF-B925CD183695}" name="Additional" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{E703D194-D5AA-44E0-8BFE-DF60FB4ED58A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="39" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{81C8FCE9-5158-4C2F-9461-DC79C2EF9953}" name="Description of processes" dataDxfId="38" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CB9F45C1-8760-4C55-A3A1-5301FE8B68E6}" name="How often are administrative  privileges reviewed?" dataDxfId="37" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{A27C7B53-FDD9-408C-95A1-6AB451807912}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="36" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{B36E1AA8-6648-4469-82F1-A2C2B03CA1C8}" name="Comments if any" dataDxfId="35" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{20237F15-9ABD-4B0B-9C5D-759B889ACEE5}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="34" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="10" xr3:uid="{E3C7E586-9993-43F9-9D8B-210743DC5AB8}" name="Comments" dataDxfId="33" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{A390F3A1-A785-4F9E-9BDC-D73316793793}" name="Column1" dataDxfId="32" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6370,43 +6762,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
@@ -6420,124 +6812,124 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="169" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="163" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="150"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="165"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="153" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="168"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="152"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="164"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="167"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="158"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6566,14 +6958,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6632,14 +7024,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6703,14 +7095,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6775,14 +7167,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6888,14 +7280,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="172" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6999,134 +7391,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="174" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="180"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="177" t="s">
+      <c r="A7" s="173" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="177"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="174" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="173" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="181" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7140,43 +7532,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="173" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
+      <c r="G13" s="185"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="181" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7190,134 +7582,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
+      <c r="A16" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="186" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="186"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="187" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="181" t="s">
+      <c r="A19" s="189" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="181"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="181"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="174" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
+      <c r="B21" s="174"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="177" t="s">
+      <c r="A22" s="173" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="184"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="184"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="184"/>
-      <c r="I23" s="184"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="173" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7336,6 +7728,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -7348,18 +7752,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8212,14 +8604,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8713,13 +9105,61 @@
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
       <c r="F24" s="57"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
       <c r="I24" s="56">
         <v>0</v>
       </c>
       <c r="J24" s="143"/>
       <c r="K24" s="143"/>
+    </row>
+    <row r="26" spans="1:11" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="61.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="56">
+        <v>0</v>
+      </c>
+      <c r="E27" s="192" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56">
+        <v>0</v>
+      </c>
+      <c r="H27" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -8732,12 +9172,14 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <tableParts count="5">
-    <tablePart r:id="rId5"/>
+  <legacyDrawing r:id="rId5"/>
+  <tableParts count="6">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9100,6 +9542,43 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E1479B33370014A94629D14E7E035B7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f8dbca6bf93f2782719d40778ede3cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xmlns:ns3="2ea85696-5d49-4719-8940-b51507ccf115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c46fde71e1d41f3ccbfaee5083d86d4b" ns2:_="" ns3:_="">
     <xsd:import namespace="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
@@ -9342,58 +9821,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9416,9 +9847,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF87251-73D9-481B-9107-4ABE4A6B25F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19026B33-168A-4EA4-940A-F91A73973AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -2097,7 +2097,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -2494,6 +2494,39 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2524,9 +2557,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2536,42 +2566,48 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2590,40 +2626,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2641,7 +2653,7 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{EB67A1A0-AB19-8041-A0FA-222E62834CE1}"/>
     <cellStyle name="Note 2" xfId="6" xr:uid="{9C2FA45C-3CCF-4DE1-B1D2-C7003E085B02}"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="130">
     <dxf>
       <font>
         <b val="0"/>
@@ -2848,54 +2860,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3475,6 +3453,56 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6257,18 +6285,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="128">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DF8C5074-499C-744E-971A-9067CECB866C}" name="AboutYou" displayName="AboutYou" ref="A2:C14" headerRowCount="0" totalsRowShown="0" tableBorderDxfId="129">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="127" headerRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="126"/>
-    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{4E22ACC3-A136-674F-AB2D-C0E12934FA92}" name="Column1" headerRowDxfId="128" headerRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A84757E2-8B75-DD4F-BA7E-51A1C5304BC6}" name="Column2" headerRowDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{A3359D3C-AD18-CA44-B273-35C1342584DD}" name="Column3" headerRowDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F92C2DEB-C556-4A64-93ED-CF5A6A82E6E6}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F92C2DEB-C556-4A64-93ED-CF5A6A82E6E6}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F857DDDA-6F48-477A-825B-B24E89CD1A59}" name="PR3-E8.5" dataDxfId="7" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{8A2A7231-A512-4414-A935-8055A0331687}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="6" dataCellStyle="Normal 2"/>
@@ -6284,170 +6312,170 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="22" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="21" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="21" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="20" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="11" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="10" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="9" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}" name="Table1" displayName="Table1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:J4" xr:uid="{92CF42CC-BDE6-4F5E-8166-FF3F2344F966}"/>
   <tableColumns count="10">
-    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="122" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="121"/>
-    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="120" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="119" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="118" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="117" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="116" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="114" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="113" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{8A35A1E8-53AD-40CA-8B12-B4E66046888B}" name="How are you providing assurance for your ISMS?_x000a_(Choose one option below)" dataDxfId="123" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{4178B884-E6A5-4C91-BB96-D650916A7A5C}" name="I need to provide" dataDxfId="122"/>
+    <tableColumn id="8" xr3:uid="{FD04D785-55CE-B947-9CB4-2DE8F42FFF5A}" name="PR1  -Evidence of ISMS" dataDxfId="121" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{40BF6F44-F42A-6244-A826-0C71E8F6D5AA}" name="PR2 - Risk Management" dataDxfId="120" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{85534739-7B56-974B-B74F-49A1E76CDE3A}" name="PR3  QGISCF,QGAF,DES" dataDxfId="119" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{1AA3EEDB-3446-2E47-9E0E-C0585920D63A}" name="PR3 -E8" dataDxfId="118" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{4722A31D-AA83-4549-BDDE-12FCA0C36BED}" name="PR4 -System Assurance" dataDxfId="117" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{1100E9E9-D361-D843-A5BE-22828356B3BD}" name="PR5 - Accountable Officer Attestation" dataDxfId="116" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{9200340B-BE2B-4576-A979-BF66CDDFDCA8}" name="Guidance" dataDxfId="115" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{7B8E8A8E-9B34-41C8-A2E0-502BA653925F}" name="__PowerAppsId__" dataDxfId="114" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="112" dataDxfId="111" tableBorderDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}" name="PolicyR1" displayName="PolicyR1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112" tableBorderDxfId="111">
   <autoFilter ref="A1:I16" xr:uid="{BF8D1954-0527-4D54-A6C1-7BED95F1568B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="109" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="108" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="107" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="106" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="105" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="104" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="103" dataCellStyle="Note 2"/>
-    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="102" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="101" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{C1D6B8ED-F221-4E0B-871A-CAE3855BB0B1}" name="#" dataDxfId="110" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{1796E134-381D-45F3-B27C-D8F62FA3AA03}" name="Element" dataDxfId="109" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{1C55CFB3-424A-41A8-BACF-2C9047EFB8C8}" name="Policy Requirements" dataDxfId="108" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{24912023-2E86-44C1-B4C8-5D8CA451BE00}" name="Additional Guidance" dataDxfId="107" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{BCE65FF7-8EAA-4D2B-9415-AB63BF29ABF4}" name="Description of your Evidence " dataDxfId="106" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{DBF1D6E3-AF5E-4A7C-9B74-41F43069C42B}" name="Evidence File Name or URL" dataDxfId="105" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="11" xr3:uid="{EB80493A-2634-4FA0-83D8-9C21434D6193}" name="Your Notes (Optional)" dataDxfId="104" dataCellStyle="Note 2"/>
+    <tableColumn id="8" xr3:uid="{0968DC01-4361-4991-8F84-EDADB4516FA5}" name="Additional Links" dataDxfId="103" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{814AD4DD-4A9E-4794-A916-E3D2A2424CA4}" name="__PowerAppsId__" dataDxfId="102" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="100" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}" name="PolicyR2" displayName="PolicyR2" ref="A1:G3" totalsRowShown="0" headerRowDxfId="101" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G3" xr:uid="{2950E7F6-02D7-764D-A273-EA2A6DD44391}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="99" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="98" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="97" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="96" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="95" dataCellStyle="Hyperlink"/>
-    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="94" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="93" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FA59F3E7-505F-2F40-BAFE-861E26F2EE8D}" name="#" dataDxfId="100" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{70BCAEC0-68FC-474D-AF86-1C58BB98A5FB}" name="Policy Requirements" dataDxfId="99" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{3FEEFF5D-7DAA-304B-AD1F-389FC506768E}" name="Additional Guidance" dataDxfId="98" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{6E34E57B-7B86-164D-9CEF-0C7085F78CD5}" name="Description of your Evidence" dataDxfId="97" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{4A18F3CC-C5DB-0944-B106-AC02131391C0}" name="Evidence File Name or URL" dataDxfId="96" dataCellStyle="Hyperlink"/>
+    <tableColumn id="6" xr3:uid="{C920731E-8E66-F54E-B5FE-6A9B4DA657F2}" name="Your Notes(Optional)" dataDxfId="95" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CBB672D0-1A94-9640-A809-44E93A273D95}" name="Additional Links" dataDxfId="94" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{267DBBEC-EBD9-8047-934C-46C6794C5CA2}" name="PolicyR3" displayName="PolicyR3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{EE3C1643-5589-964D-864E-7B73D51F5975}" name="PR3" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{EA5294A1-0FD0-C346-AFD4-64D47D37ACBA}" name="Policy Requirements" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{73D83B14-E23C-A840-9722-8422B6F80BAA}" name="Additional Guidance" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{A9F44B1F-36B9-E048-BDB4-6CE83BC7D247}" name="Does your agency meet the requirement" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{CFE297BB-30AC-1146-9416-EA8FD1781255}" name="Description of your Evidence " dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{D2A79E5C-E4E0-F648-95B6-CD3C17751B79}" name="Evidence File Name or URL" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{35D610A5-9067-F343-A8F3-7A69CB4D4023}" name="Your Notes" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{1AF2253E-86EF-9949-85E1-410C5B169850}" name="Additional Links" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" tableBorderDxfId="80" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B5BAC64C-6737-4744-A0F0-64FF9F317168}" name="PolicyR3e81" displayName="PolicyR3e81" ref="A10:F12" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" tableBorderDxfId="81" headerRowCellStyle="Normal 2">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="79" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="78" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="77" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="76" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="75" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="74" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{0AD3CA88-D8A3-F74D-A507-4590E23BBBF8}" name="PR3- E8.1" dataDxfId="80" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{56037E7E-0FE2-CD44-A74F-89152016EBDC}" name="Application whitelisting_x000a_Use application whitelisting to help prevent malicious software and other unapproved programs from running " dataDxfId="79" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{9D1A4E29-E2A4-FF4B-B394-9986978FFD3A}" name="Explanation of response requested" dataDxfId="78" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{7728A888-62DA-294E-BC19-C700F656E422}" name="Percentage of fleet with application whitelisting" dataDxfId="77" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{98916C89-EDC5-3D4A-88DE-91EB0A09522A}" name="Risk mitigation for remaining fleet without application whitelisting (evidence may be required)_x000a_Please refer to the guideline" dataDxfId="76" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{FF3205ED-5A8C-B94B-B9EC-DC42AB0C926A}" name="Total percentage of protected fleet " dataDxfId="75" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="71" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C3439639-B23A-4604-851F-874EAF3EAD19}" name="PolicyR3e82" displayName="PolicyR3e82" ref="A14:K16" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73" tableBorderDxfId="72" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="67" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="66" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="65" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="64" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="63" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="62" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="61" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="60" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{078DD451-B2AF-4E3F-BC57-AF2142A12E23}" name="PR3-E8.2" dataDxfId="71" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{4028F983-EF73-4829-9305-C871B66317A6}" name="Patch applications _x000a_Patch applications such as PDF readers, Microsoft Office, Java, Flash Player and web browsers" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{4167CD60-8258-4A21-9C16-BADC823D341D}" name="Further info" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{46292EAB-B3C7-450B-BE3E-51BDC7F94356}" name="Patched within 30 days" dataDxfId="68" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{71FA7D7F-6C93-4AD5-9276-3CCC84008FCE}" name="Patched within 31 - 60 days" dataDxfId="67" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{53D08682-7F13-432F-9A2E-DB837A0A47CF}" name="Patched within 61 - 90 days" dataDxfId="66" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{BF7AD793-6EAB-4B11-84CC-2ADE7D01EAC4}" name="Total percentage of fleet" dataDxfId="65" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{157D2E0B-D1DF-4953-9CCF-4DFCBFA17344}" name="Evidence of risk managements and patching timelines" dataDxfId="64" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{79EA0F5F-6B0C-4903-9BC8-08CDDB442B7B}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="63" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{8B2D4E09-F794-49F5-82B0-C7BE21EC37E1}" name="Comments" dataDxfId="62" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{CE4DC975-3287-4AF1-BB57-CF176503EE70}" name="Column2" dataDxfId="61" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{565A1AB0-3C99-4B75-B085-27F50AF4864D}" name="PolicyR3e83" displayName="PolicyR3e83" ref="A18:K21" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="51" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="50" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="49" dataCellStyle="Note 2"/>
-    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="48" dataCellStyle="Note 2"/>
-    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="47" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="46" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{025A52F7-FC21-4411-BC3A-AC9CCFC5CF09}" name="PR3- E8.3" dataDxfId="57" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C802B13F-608E-4629-9796-004374CB0F9A}" name="Patch operating systems_x000a_Patch operating system vulnerabilities" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{F619BAC3-39EB-4EA5-81BA-5AD359642384}" name="Further Info" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{D626DABD-C3B1-40EE-900E-3A7982339710}" name="Patched within 30 days" dataDxfId="54" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{AA90A506-7066-4AE4-8BDC-6EE9545CFAC7}" name="Patched within 31 - 60 days" dataDxfId="53" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="6" xr3:uid="{33D153E2-03C6-43D6-A047-6713E76D4FB8}" name="Patched within 61 - 90 days" dataDxfId="52" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="7" xr3:uid="{91195675-4A87-485B-8F49-4B52570BB9BB}" name="Total percentage of fleet" dataDxfId="51" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{608D2F8E-4A13-4F45-9B65-DBB8B16AB7C8}" name="Evidence of risk managements and patching timelines" dataDxfId="50" dataCellStyle="Note 2"/>
+    <tableColumn id="9" xr3:uid="{B83CABD2-A24E-4FE7-A569-E8AA10BDAC65}" name="Mitigating controls where patching is not completed 90&lt; days _x000a_Please refer to the guideline linked above" dataDxfId="49" dataCellStyle="Note 2"/>
+    <tableColumn id="10" xr3:uid="{2CBEFF92-E571-41BF-BF53-1817C90BDD04}" name="Comments" dataDxfId="48" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{1735DA50-71B3-4DC9-A59A-6EFC9BBD46A0}" name="Column1" dataDxfId="47" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D9310BEB-25DB-42FC-973F-DAF1FDEBF04B}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D9310BEB-25DB-42FC-973F-DAF1FDEBF04B}" name="PolicyR3e84" displayName="PolicyR3e84" ref="A23:K24" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44" headerRowCellStyle="Normal 2">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{561C8C41-77AA-4224-8A5A-95738E62CFAE}" name="PR3-E8.4" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{A33609DB-7B94-4B7D-BEC6-05C7EF2EF089}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{97B0ED61-F455-4BFC-99FF-B925CD183695}" name="Additional" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{E703D194-D5AA-44E0-8BFE-DF60FB4ED58A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="39" dataCellStyle="Note 2"/>
-    <tableColumn id="5" xr3:uid="{81C8FCE9-5158-4C2F-9461-DC79C2EF9953}" name="Description of processes" dataDxfId="38" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{CB9F45C1-8760-4C55-A3A1-5301FE8B68E6}" name="How often are administrative  privileges reviewed?" dataDxfId="37" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{A27C7B53-FDD9-408C-95A1-6AB451807912}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="36" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{B36E1AA8-6648-4469-82F1-A2C2B03CA1C8}" name="Comments if any" dataDxfId="35" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="9" xr3:uid="{20237F15-9ABD-4B0B-9C5D-759B889ACEE5}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="34" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="10" xr3:uid="{E3C7E586-9993-43F9-9D8B-210743DC5AB8}" name="Comments" dataDxfId="33" dataCellStyle="Note 2"/>
-    <tableColumn id="11" xr3:uid="{A390F3A1-A785-4F9E-9BDC-D73316793793}" name="Column1" dataDxfId="32" dataCellStyle="Note 2"/>
+    <tableColumn id="1" xr3:uid="{561C8C41-77AA-4224-8A5A-95738E62CFAE}" name="PR3-E8.4" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{A33609DB-7B94-4B7D-BEC6-05C7EF2EF089}" name="Minimise users with administrative privileges _x000a_The misuse of administrative privileges is a primary method for attackers to spread inside a target enterprise" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{97B0ED61-F455-4BFC-99FF-B925CD183695}" name="Additional" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{E703D194-D5AA-44E0-8BFE-DF60FB4ED58A}" name="Processes for onboarding and offboarding staff exist (Yes/No)" dataDxfId="40" dataCellStyle="Note 2"/>
+    <tableColumn id="5" xr3:uid="{81C8FCE9-5158-4C2F-9461-DC79C2EF9953}" name="Description of processes" dataDxfId="39" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{CB9F45C1-8760-4C55-A3A1-5301FE8B68E6}" name="How often are administrative  privileges reviewed?" dataDxfId="38" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{A27C7B53-FDD9-408C-95A1-6AB451807912}" name="An auditable register of admin groups is kept (Yes/No)" dataDxfId="37" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{B36E1AA8-6648-4469-82F1-A2C2B03CA1C8}" name="Comments if any" dataDxfId="36" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="9" xr3:uid="{20237F15-9ABD-4B0B-9C5D-759B889ACEE5}" name="Percentage of staff with elevated privileges who do not have a separate standard user account." dataDxfId="35" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="10" xr3:uid="{E3C7E586-9993-43F9-9D8B-210743DC5AB8}" name="Comments" dataDxfId="34" dataCellStyle="Note 2"/>
+    <tableColumn id="11" xr3:uid="{A390F3A1-A785-4F9E-9BDC-D73316793793}" name="Column1" dataDxfId="33" dataCellStyle="Note 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6762,43 +6790,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
@@ -6812,124 +6840,124 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="159"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="150" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="165"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="160"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="170"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="152"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="163"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="166"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="158"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="169"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6958,14 +6986,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7024,14 +7052,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7095,14 +7123,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7167,14 +7195,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7280,14 +7308,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7391,134 +7419,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="185" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="185" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="185"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="177"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
-      <c r="I6" s="180"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="179" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="179" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7532,43 +7560,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="185"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="181" t="s">
+      <c r="A14" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="182"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7582,134 +7610,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="179" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="180" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="188"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="189" t="s">
+      <c r="A19" s="183" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="189"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="189"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="189"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="184" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="174" t="s">
+      <c r="A21" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="191" t="s">
+      <c r="A23" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="179" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
+      <c r="B25" s="175"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7728,6 +7756,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
@@ -7740,18 +7780,6 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8610,8 +8638,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9114,45 +9142,45 @@
       <c r="K24" s="143"/>
     </row>
     <row r="26" spans="1:11" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="193" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="194" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="194" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="194" t="s">
         <v>314</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="194" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="194" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="194" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="194" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="195" t="s">
         <v>318</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="196" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="196" t="s">
         <v>320</v>
       </c>
       <c r="D27" s="56">
         <v>0</v>
       </c>
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="149" t="s">
         <v>321</v>
       </c>
       <c r="F27" s="57"/>
@@ -9542,43 +9570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E1479B33370014A94629D14E7E035B7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f8dbca6bf93f2782719d40778ede3cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xmlns:ns3="2ea85696-5d49-4719-8940-b51507ccf115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c46fde71e1d41f3ccbfaee5083d86d4b" ns2:_="" ns3:_="">
     <xsd:import namespace="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
@@ -9821,10 +9812,58 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9847,20 +9886,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/e8-noFilter.xlsx
+++ b/e8-noFilter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SawSoe\Desktop\frontend\e8document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19026B33-168A-4EA4-940A-F91A73973AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6C76E-AF54-4EB5-A4CD-0948B6EB085A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2580" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{149B6D2C-B18F-46C6-A9A2-8B48A3F23525}"/>
   </bookViews>
@@ -67,49 +67,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>dan</author>
-  </authors>
-  <commentList>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{D8171890-233E-47D5-A369-4146D859D214}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Example:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Rural workstations do not receive the SOE for availability purposes, these risks have been accepted by the DG</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="322">
   <si>
@@ -1519,7 +1476,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0000\ 000\ 000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1765,19 +1722,6 @@
       <u/>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2497,6 +2441,60 @@
     <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2515,9 +2513,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2527,48 +2522,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2578,15 +2564,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2603,40 +2580,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2656,227 +2600,6 @@
   <dxfs count="130">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3452,6 +3175,227 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -6296,46 +6240,46 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F92C2DEB-C556-4A64-93ED-CF5A6A82E6E6}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="8" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F92C2DEB-C556-4A64-93ED-CF5A6A82E6E6}" name="PolicyR3e85" displayName="PolicyR3e85" ref="A26:H27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30" headerRowCellStyle="Normal 2" dataCellStyle="20% - Accent2">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F857DDDA-6F48-477A-825B-B24E89CD1A59}" name="PR3-E8.5" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8A2A7231-A512-4414-A935-8055A0331687}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{63AC80DA-9135-46C4-90D8-8FDCDE66ED76}" name="Additional" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{A133C0D7-5391-4891-86BE-EB252E8B9AA2}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="4" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{87B48093-7F67-4191-B6F1-1B3756AF13C3}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="3" dataCellStyle="Note 2"/>
-    <tableColumn id="6" xr3:uid="{E53D1F9C-D6EE-4676-9179-BAA14A6D5D4A}" name="Additional Comments (optional)" dataDxfId="2" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{B4735306-2D49-4E88-854C-396F43F1D839}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="1" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="8" xr3:uid="{E150B49A-65BA-47A9-B2F9-D6618DE15EEB}" name="Comments if any" dataDxfId="0" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="1" xr3:uid="{F857DDDA-6F48-477A-825B-B24E89CD1A59}" name="PR3-E8.5" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8A2A7231-A512-4414-A935-8055A0331687}" name="Disable untrusted Microsoft Office macros_x000a_Macros are increasingly being used to enable the download of malware.  Adversaries can then access sensitive information, so macros should be secured or disabled" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{63AC80DA-9135-46C4-90D8-8FDCDE66ED76}" name="Additional" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{A133C0D7-5391-4891-86BE-EB252E8B9AA2}" name="Percentage of fleet with MS Office macros disabled. _x000a_(Compute devices where MSOffice installed are considered 'disabled')" dataDxfId="26" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{87B48093-7F67-4191-B6F1-1B3756AF13C3}" name="Risk mitigation for macro enabled workstations (evidence may be required)" dataDxfId="25" dataCellStyle="Note 2"/>
+    <tableColumn id="6" xr3:uid="{E53D1F9C-D6EE-4676-9179-BAA14A6D5D4A}" name="Additional Comments (optional)" dataDxfId="24" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{B4735306-2D49-4E88-854C-396F43F1D839}" name="Total percentage of protected fleet   (Cybersecurity Unit to review and accept)" dataDxfId="23" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="8" xr3:uid="{E150B49A-65BA-47A9-B2F9-D6618DE15EEB}" name="Comments if any" dataDxfId="22" dataCellStyle="20% - Accent2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}" name="PolicyR4" displayName="PolicyR4" ref="A1:G4" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:G4" xr:uid="{031FE43E-217C-2649-AC5F-7A44C958A7D1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="21" dataCellStyle="20% - Accent2"/>
-    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="20" dataCellStyle="Note 2"/>
-    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{6E1EDF40-70B6-544B-A986-5E60024AA3D5}" name="#" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{5C238449-1F5D-1D47-AADF-BD451FFA350B}" name="Policy Requirements" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{EC0204AF-CEF0-0342-8769-4DEEAD0DC24B}" name="Additional Guidance" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{AB37D074-1647-3B4F-8E8E-D27070BC985D}" name="Your Evidence" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{74A161C0-338D-404B-B6F8-F55A12B59FFB}" name="Evidence File Name or URL" dataDxfId="12" dataCellStyle="20% - Accent2"/>
+    <tableColumn id="5" xr3:uid="{C0C01509-32BA-AF4C-963C-85736CADCE9D}" name="Your Notes" dataDxfId="11" dataCellStyle="Note 2"/>
+    <tableColumn id="7" xr3:uid="{DF6ECCA5-FC8C-47D7-8A81-BD23D6866FB7}" name="Additional Links" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}" name="PolicyR5" displayName="PolicyR5" ref="A1:E2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:E2" xr:uid="{958D11D4-E02A-7043-8E35-69B8DE22E019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="10" dataCellStyle="Comma 2"/>
-    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="9" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{8E19B852-1D8F-5B41-B909-40400D58B70B}" name="#" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{21CD23DA-3756-6843-894B-9CB4D083C06A}" name="Policy Requirement" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{CC769D77-0EFF-7E40-8F8D-7501A9CA818F}" name="Additional Guidance" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{B536756C-928D-224C-898B-F5832F8F988E}" name="Attestation File Name or URL" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="5" xr3:uid="{7D72BA3E-D6C6-8444-862D-C91A865EF1DA}" name="Sample Attestation for information" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6790,43 +6734,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
@@ -6840,124 +6784,124 @@
       <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="159"/>
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="176"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="150" t="s">
+      <c r="A6" s="168" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="152"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="170"/>
     </row>
     <row r="7" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="170"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
     </row>
     <row r="8" spans="1:9" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="163"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
     </row>
     <row r="10" spans="1:9" s="47" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="169"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:9" s="47" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="166" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="96" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{357412D1-D809-42A8-A171-62DB313EA5FE}"/>
@@ -6986,14 +6930,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7052,14 +6996,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7123,14 +7067,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7195,14 +7139,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7308,14 +7252,14 @@
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7419,134 +7363,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="179"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="179" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="179" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="185"/>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="182"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="192"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="185"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="179" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="177" t="s">
+      <c r="A10" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -7560,43 +7504,43 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="186" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -7610,134 +7554,134 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="179" t="s">
+      <c r="A16" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="191"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="192" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="194" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184" t="s">
+      <c r="A20" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="184"/>
-      <c r="H20" s="184"/>
-      <c r="I20" s="184"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="179" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="186" t="s">
+      <c r="A23" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="178" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="189"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7756,6 +7700,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
@@ -7768,18 +7724,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qgcio.qld.gov.au/documents/information-security-policy_x000a__x000a_ " xr:uid="{3A93C843-C1FF-41B8-A248-E76E203BCE29}"/>
@@ -8632,14 +8576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D7C46D-F539-8F4D-9CE4-E9FFA70687BC}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9142,39 +9086,39 @@
       <c r="K24" s="143"/>
     </row>
     <row r="26" spans="1:11" ht="109.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="150" t="s">
         <v>312</v>
       </c>
-      <c r="B26" s="194" t="s">
+      <c r="B26" s="151" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="151" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="194" t="s">
+      <c r="D26" s="151" t="s">
         <v>314</v>
       </c>
-      <c r="E26" s="194" t="s">
+      <c r="E26" s="151" t="s">
         <v>315</v>
       </c>
-      <c r="F26" s="194" t="s">
+      <c r="F26" s="151" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="194" t="s">
+      <c r="G26" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="194" t="s">
+      <c r="H26" s="151" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="195" t="s">
+      <c r="A27" s="152" t="s">
         <v>318</v>
       </c>
-      <c r="B27" s="196" t="s">
+      <c r="B27" s="153" t="s">
         <v>319</v>
       </c>
-      <c r="C27" s="196" t="s">
+      <c r="C27" s="153" t="s">
         <v>320</v>
       </c>
       <c r="D27" s="56">
@@ -9200,14 +9144,13 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
   <tableParts count="6">
+    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9570,6 +9513,43 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
+      <UserInfo>
+        <DisplayName>Andy Stokes</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Klaser</DisplayName>
+        <AccountId>98</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dinar Adnan</DisplayName>
+        <AccountId>35</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002E1479B33370014A94629D14E7E035B7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f8dbca6bf93f2782719d40778ede3cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xmlns:ns3="2ea85696-5d49-4719-8940-b51507ccf115" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c46fde71e1d41f3ccbfaee5083d86d4b" ns2:_="" ns3:_="">
     <xsd:import namespace="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
@@ -9812,58 +9792,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737">
-      <UserInfo>
-        <DisplayName>Andy Stokes</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Klaser</DisplayName>
-        <AccountId>98</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dinar Adnan</DisplayName>
-        <AccountId>35</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2ea85696-5d49-4719-8940-b51507ccf115">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="474a08bd-ae9f-4ab7-ab72-cad3c4647737" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
-    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9886,9 +9818,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D8D15-F34E-4DDB-A4D5-9901CB38744B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A0ADE18-14C1-4E39-A33A-3D26FDF4A566}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="474a08bd-ae9f-4ab7-ab72-cad3c4647737"/>
+    <ds:schemaRef ds:uri="2ea85696-5d49-4719-8940-b51507ccf115"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>